--- a/excel/model.xlsx
+++ b/excel/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiddenpants-H\PycharmProjects\Antioxidant Protein Binary classification\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC5F30-F833-4B15-8CDD-62EF7371A9AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A307F5-F39B-442B-B874-D9DB18B8C5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DE2633A-700B-4BFF-9EE5-66DB1F5232EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="15">
   <si>
     <t>model</t>
   </si>
@@ -168,9 +168,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +176,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -498,7 +498,7 @@
   <dimension ref="A1:AB129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,56 +508,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="6">
         <v>2538</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="L1" s="4" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
-      <c r="R1" s="4" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
+      <c r="R1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="6"/>
-      <c r="X1" s="4" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="5"/>
+      <c r="X1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="6"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -635,26 +635,66 @@
       <c r="E3" s="1">
         <v>142</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
+      <c r="F3" s="1">
+        <v>0.98648650000000004</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.83673470000000005</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.86051500000000003</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.66041539999999999</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.91161060000000005</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.97297299999999998</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.92346936000000002</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.93133043999999998</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.79237449999999998</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.94822114999999996</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.98648650000000004</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.91326529999999995</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.92489270000000001</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.78188429999999998</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.94987582999999998</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0.98648650000000004</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.90816324999999998</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0.92060083000000004</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0.77243965999999997</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0.94732490000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -672,11 +712,21 @@
       <c r="E4" s="1">
         <v>142</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="F4" s="1">
+        <v>0.98648650000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.90051020000000004</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.91416310000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.75870029999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.94349830000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -694,11 +744,21 @@
       <c r="E5" s="1">
         <v>142</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="F5" s="1">
+        <v>0.97297299999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.81377553999999996</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.83905580000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.62109535999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.98337430000000003</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -716,11 +776,21 @@
       <c r="E6" s="1">
         <v>142</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="F6" s="1">
+        <v>0.91891889999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.92602039999999997</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.92489270000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.76065090000000002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.9224696</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -738,11 +808,21 @@
       <c r="E7" s="1">
         <v>142</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="F7" s="1">
+        <v>0.98648650000000004</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.85969390000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.87982833000000005</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.69288079999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.92309015999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -760,11 +840,21 @@
       <c r="E8" s="1">
         <v>142</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="F8" s="1">
+        <v>0.95945950000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.86479589999999995</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.87982833000000005</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.68170549999999996</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.91212773000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -782,11 +872,21 @@
       <c r="E9" s="1">
         <v>141</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="F9" s="1">
+        <v>0.95945950000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.89795919999999996</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.90772533</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.73565835000000002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.92870940000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -804,11 +904,21 @@
       <c r="E10" s="1">
         <v>141</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="F10" s="1">
+        <v>0.97297299999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.88265305999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.89699569999999995</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.7191381</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.92781305000000003</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -826,11 +936,21 @@
       <c r="E11" s="1">
         <v>142</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="F11" s="1">
+        <v>0.93243240000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.92091835</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.92274679999999998</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.75970674000000005</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.92667529999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -848,63 +968,73 @@
       <c r="E12" s="1">
         <v>142</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="F12" s="1">
+        <v>0.85135139999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.96173470000000005</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.94420599999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.7960351</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.90654310000000005</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="6">
+        <v>3128</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="R14" s="4" t="s">
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="R14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="6"/>
-      <c r="X14" s="4" t="s">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5"/>
+      <c r="X14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="6"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="5"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,11 +1127,11 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1202,56 +1332,56 @@
       <c r="J25" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="6"/>
-      <c r="R27" s="4" t="s">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5"/>
+      <c r="R27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="6"/>
-      <c r="X27" s="4" t="s">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="5"/>
+      <c r="X27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="6"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1344,11 +1474,11 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1549,56 +1679,56 @@
       <c r="J38" s="1"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="1"/>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6"/>
-      <c r="R40" s="4" t="s">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="5"/>
+      <c r="R40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="6"/>
-      <c r="X40" s="4" t="s">
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="5"/>
+      <c r="X40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="6"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="5"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1691,11 +1821,11 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1896,56 +2026,56 @@
       <c r="J51" s="1"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="1"/>
-      <c r="L53" s="4" t="s">
+      <c r="L53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="6"/>
-      <c r="R53" s="4" t="s">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="5"/>
+      <c r="R53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="6"/>
-      <c r="X53" s="4" t="s">
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="5"/>
+      <c r="X53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="6"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="5"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
@@ -2038,11 +2168,11 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -2243,56 +2373,56 @@
       <c r="J64" s="1"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
       <c r="J66" s="1"/>
-      <c r="L66" s="4" t="s">
+      <c r="L66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="6"/>
-      <c r="R66" s="4" t="s">
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="5"/>
+      <c r="R66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="6"/>
-      <c r="X66" s="4" t="s">
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="5"/>
+      <c r="X66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="6"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="5"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="1" t="s">
         <v>6</v>
       </c>
@@ -2385,11 +2515,11 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -2590,56 +2720,56 @@
       <c r="J77" s="1"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
       <c r="J79" s="1"/>
-      <c r="L79" s="4" t="s">
+      <c r="L79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="6"/>
-      <c r="R79" s="4" t="s">
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="5"/>
+      <c r="R79" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="6"/>
-      <c r="X79" s="4" t="s">
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="5"/>
+      <c r="X79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="6"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="5"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
       <c r="F80" s="1" t="s">
         <v>6</v>
       </c>
@@ -2732,11 +2862,11 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -2937,56 +3067,56 @@
       <c r="J90" s="1"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
       <c r="J92" s="1"/>
-      <c r="L92" s="4" t="s">
+      <c r="L92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="6"/>
-      <c r="R92" s="4" t="s">
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="5"/>
+      <c r="R92" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="6"/>
-      <c r="X92" s="4" t="s">
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="5"/>
+      <c r="X92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
-      <c r="AB92" s="6"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="5"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
       <c r="F93" s="1" t="s">
         <v>6</v>
       </c>
@@ -3079,11 +3209,11 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-      <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -3284,56 +3414,56 @@
       <c r="J103" s="1"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
       <c r="J105" s="1"/>
-      <c r="L105" s="4" t="s">
+      <c r="L105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="6"/>
-      <c r="R105" s="4" t="s">
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="5"/>
+      <c r="R105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="6"/>
-      <c r="X105" s="4" t="s">
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="5"/>
+      <c r="X105" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-      <c r="AA105" s="5"/>
-      <c r="AB105" s="6"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="5"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
       <c r="F106" s="1" t="s">
         <v>6</v>
       </c>
@@ -3426,11 +3556,11 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
-      <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
-      <c r="AA107" s="3"/>
-      <c r="AB107" s="3"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -3631,56 +3761,56 @@
       <c r="J116" s="1"/>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
       <c r="J118" s="1"/>
-      <c r="L118" s="4" t="s">
+      <c r="L118" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="6"/>
-      <c r="R118" s="4" t="s">
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="5"/>
+      <c r="R118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5"/>
-      <c r="V118" s="6"/>
-      <c r="X118" s="4" t="s">
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="5"/>
+      <c r="X118" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
-      <c r="AA118" s="5"/>
-      <c r="AB118" s="6"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
+      <c r="AB118" s="5"/>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
       <c r="F119" s="1" t="s">
         <v>6</v>
       </c>
@@ -3773,11 +3903,11 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-      <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -3979,39 +4109,41 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="L118:P118"/>
-    <mergeCell ref="R118:V118"/>
-    <mergeCell ref="X118:AB118"/>
-    <mergeCell ref="L92:P92"/>
-    <mergeCell ref="R92:V92"/>
-    <mergeCell ref="X92:AB92"/>
-    <mergeCell ref="L105:P105"/>
-    <mergeCell ref="R105:V105"/>
-    <mergeCell ref="X105:AB105"/>
-    <mergeCell ref="L66:P66"/>
-    <mergeCell ref="R66:V66"/>
-    <mergeCell ref="X66:AB66"/>
-    <mergeCell ref="L79:P79"/>
-    <mergeCell ref="R79:V79"/>
-    <mergeCell ref="X79:AB79"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="X40:AB40"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="R53:V53"/>
-    <mergeCell ref="X53:AB53"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="X27:AB27"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
     <mergeCell ref="F118:I118"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="B105:B106"/>
@@ -4024,51 +4156,49 @@
     <mergeCell ref="C118:C119"/>
     <mergeCell ref="D118:D119"/>
     <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
     <mergeCell ref="F92:I92"/>
     <mergeCell ref="E66:E67"/>
     <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
     <mergeCell ref="F79:I79"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
     <mergeCell ref="F53:I53"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
     <mergeCell ref="F40:I40"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="X27:AB27"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="X40:AB40"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="R53:V53"/>
+    <mergeCell ref="X53:AB53"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="R66:V66"/>
+    <mergeCell ref="X66:AB66"/>
+    <mergeCell ref="L79:P79"/>
+    <mergeCell ref="R79:V79"/>
+    <mergeCell ref="X79:AB79"/>
+    <mergeCell ref="L118:P118"/>
+    <mergeCell ref="R118:V118"/>
+    <mergeCell ref="X118:AB118"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="R92:V92"/>
+    <mergeCell ref="X92:AB92"/>
+    <mergeCell ref="L105:P105"/>
+    <mergeCell ref="R105:V105"/>
+    <mergeCell ref="X105:AB105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/model.xlsx
+++ b/excel/model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiddenpants-H\PycharmProjects\Antioxidant Protein Binary classification\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A307F5-F39B-442B-B874-D9DB18B8C5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F609602-B7FF-4FD1-AF1F-3F7D8596A322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DE2633A-700B-4BFF-9EE5-66DB1F5232EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="15">
   <si>
     <t>model</t>
   </si>
@@ -84,10 +84,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -161,14 +168,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -178,8 +206,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406722F-D0D7-4218-8B8E-A681B8557960}">
   <dimension ref="A1:AB129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,56 +542,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+      <c r="A1" s="3">
         <v>2538</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="L1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
-      <c r="R1" s="3" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="5"/>
-      <c r="X1" s="3" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="6"/>
+      <c r="X1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="5"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -635,65 +669,65 @@
       <c r="E3" s="1">
         <v>142</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.98648650000000004</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.83673470000000005</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.86051500000000003</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.66041539999999999</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.91161060000000005</v>
+      <c r="F3" s="7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.93700000000000006</v>
       </c>
       <c r="L3" s="1">
-        <v>0.97297299999999998</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>0.92346936000000002</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>0.93133043999999998</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="O3" s="1">
-        <v>0.79237449999999998</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="P3" s="1">
-        <v>0.94822114999999996</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>0.98648650000000004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>0.91326529999999995</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="T3" s="1">
-        <v>0.92489270000000001</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="U3" s="1">
-        <v>0.78188429999999998</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="V3" s="1">
-        <v>0.94987582999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="X3" s="2">
-        <v>0.98648650000000004</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="Y3" s="2">
-        <v>0.90816324999999998</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="Z3" s="2">
-        <v>0.92060083000000004</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="AA3" s="2">
-        <v>0.77243965999999997</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="AB3" s="2">
-        <v>0.94732490000000003</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -712,20 +746,20 @@
       <c r="E4" s="1">
         <v>142</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.98648650000000004</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.90051020000000004</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.91416310000000001</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.75870029999999999</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.94349830000000001</v>
+      <c r="F4" s="8">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -744,20 +778,20 @@
       <c r="E5" s="1">
         <v>142</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.97297299999999998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.81377553999999996</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.83905580000000002</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.62109535999999999</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.98337430000000003</v>
+      <c r="F5" s="8">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -776,20 +810,20 @@
       <c r="E6" s="1">
         <v>142</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.91891889999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.92602039999999997</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.92489270000000001</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.76065090000000002</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.9224696</v>
+      <c r="F6" s="8">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -808,20 +842,20 @@
       <c r="E7" s="1">
         <v>142</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.98648650000000004</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.85969390000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.87982833000000005</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.69288079999999996</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.92309015999999999</v>
+      <c r="F7" s="8">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -840,20 +874,20 @@
       <c r="E8" s="1">
         <v>142</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.95945950000000002</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.86479589999999995</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.87982833000000005</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.68170549999999996</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.91212773000000003</v>
+      <c r="F8" s="8">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -872,20 +906,20 @@
       <c r="E9" s="1">
         <v>141</v>
       </c>
-      <c r="F9" s="1">
-        <v>0.95945950000000002</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.89795919999999996</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.90772533</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.73565835000000002</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.92870940000000002</v>
+      <c r="F9" s="8">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.94399999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -904,20 +938,20 @@
       <c r="E10" s="1">
         <v>141</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.97297299999999998</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.88265305999999999</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.89699569999999995</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.7191381</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.92781305000000003</v>
+      <c r="F10" s="8">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -936,23 +970,23 @@
       <c r="E11" s="1">
         <v>142</v>
       </c>
-      <c r="F11" s="1">
-        <v>0.93243240000000005</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.92091835</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.92274679999999998</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.75970674000000005</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.92667529999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F11" s="8">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -968,73 +1002,73 @@
       <c r="E12" s="1">
         <v>142</v>
       </c>
-      <c r="F12" s="1">
-        <v>0.85135139999999998</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.96173470000000005</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.94420599999999999</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.7960351</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.90654310000000005</v>
+      <c r="F12" s="9">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>3128</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="R14" s="3" t="s">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="R14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="3" t="s">
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="X14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="5"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1112,26 +1146,66 @@
       <c r="E16" s="1">
         <v>142</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="F16" s="7">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0.94699999999999995</v>
+      </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1149,11 +1223,21 @@
       <c r="E17" s="1">
         <v>142</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="F17" s="8">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.94299999999999995</v>
+      </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1171,11 +1255,21 @@
       <c r="E18" s="1">
         <v>142</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="F18" s="8">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.621</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.98299999999999998</v>
+      </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1193,11 +1287,21 @@
       <c r="E19" s="1">
         <v>142</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="F19" s="8">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.92200000000000004</v>
+      </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1215,11 +1319,21 @@
       <c r="E20" s="1">
         <v>142</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="F20" s="8">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.92300000000000004</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1237,11 +1351,21 @@
       <c r="E21" s="1">
         <v>142</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="F21" s="8">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.879</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.91200000000000003</v>
+      </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1259,11 +1383,21 @@
       <c r="E22" s="1">
         <v>141</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="F22" s="8">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1281,11 +1415,21 @@
       <c r="E23" s="1">
         <v>141</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23" s="8">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.92700000000000005</v>
+      </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1303,13 +1447,23 @@
       <c r="E24" s="1">
         <v>142</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F24" s="8">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -1325,63 +1479,73 @@
       <c r="E25" s="1">
         <v>142</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="F25" s="9">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.90600000000000003</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="3">
+        <v>6210</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
-      <c r="R27" s="3" t="s">
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="R27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="5"/>
-      <c r="X27" s="3" t="s">
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="6"/>
+      <c r="X27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="6"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1459,26 +1623,66 @@
       <c r="E29" s="1">
         <v>142</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
+      <c r="F29" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1496,11 +1700,21 @@
       <c r="E30" s="1">
         <v>142</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="F30" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.91600000000000004</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1518,11 +1732,21 @@
       <c r="E31" s="1">
         <v>142</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="F31" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.90800000000000003</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1540,11 +1764,21 @@
       <c r="E32" s="1">
         <v>142</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="F32" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1562,11 +1796,21 @@
       <c r="E33" s="1">
         <v>142</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="F33" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.93400000000000005</v>
+      </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1584,11 +1828,21 @@
       <c r="E34" s="1">
         <v>142</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="F34" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.91700000000000004</v>
+      </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1606,11 +1860,21 @@
       <c r="E35" s="1">
         <v>141</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="F35" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.92900000000000005</v>
+      </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1628,11 +1892,21 @@
       <c r="E36" s="1">
         <v>141</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="F36" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.872</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.92200000000000004</v>
+      </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1650,11 +1924,21 @@
       <c r="E37" s="1">
         <v>142</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="F37" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.95399999999999996</v>
+      </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1672,63 +1956,73 @@
       <c r="E38" s="1">
         <v>142</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="F38" s="1">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="A40" s="3">
+        <v>6233</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="5"/>
-      <c r="R40" s="3" t="s">
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+      <c r="R40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="5"/>
-      <c r="X40" s="3" t="s">
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="6"/>
+      <c r="X40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="6"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1806,26 +2100,66 @@
       <c r="E42" s="1">
         <v>142</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
+      <c r="F42">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G42">
+        <v>0.88</v>
+      </c>
+      <c r="H42">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I42">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J42">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="L42">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M42">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="N42">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O42">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="P42">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="R42">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="S42">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="T42">
+        <v>0.92</v>
+      </c>
+      <c r="U42">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="V42">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="X42">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="Z42">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="AA42">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="AB42">
+        <v>0.95099999999999996</v>
+      </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -1843,11 +2177,21 @@
       <c r="E43" s="1">
         <v>142</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="F43">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G43">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H43">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I43">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="J43">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -1865,11 +2209,21 @@
       <c r="E44" s="1">
         <v>142</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="F44">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G44">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H44">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I44">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J44">
+        <v>0.93500000000000005</v>
+      </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1887,11 +2241,21 @@
       <c r="E45" s="1">
         <v>142</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="F45">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G45">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="H45">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="I45">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="J45">
+        <v>0.91200000000000003</v>
+      </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1909,11 +2273,21 @@
       <c r="E46" s="1">
         <v>142</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="F46">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H46">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I46">
+        <v>0.7</v>
+      </c>
+      <c r="J46">
+        <v>0.92500000000000004</v>
+      </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -1931,11 +2305,21 @@
       <c r="E47" s="1">
         <v>142</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="F47">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H47">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I47">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J47">
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -1953,11 +2337,21 @@
       <c r="E48" s="1">
         <v>141</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="F48">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G48">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="H48">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I48">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J48">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -1975,11 +2369,21 @@
       <c r="E49" s="1">
         <v>141</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="F49">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G49">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H49">
+        <v>0.871</v>
+      </c>
+      <c r="I49">
+        <v>0.66</v>
+      </c>
+      <c r="J49">
+        <v>0.90100000000000002</v>
+      </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -1997,11 +2401,21 @@
       <c r="E50" s="1">
         <v>142</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="F50">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G50">
+        <v>0.89</v>
+      </c>
+      <c r="H50">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I50">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="J50">
+        <v>0.91100000000000003</v>
+      </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -2019,63 +2433,73 @@
       <c r="E51" s="1">
         <v>142</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="F51">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G51">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H51">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I51">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J51">
+        <v>0.92700000000000005</v>
+      </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="3">
+        <v>8730</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
       <c r="J53" s="1"/>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="5"/>
-      <c r="R53" s="3" t="s">
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6"/>
+      <c r="R53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="5"/>
-      <c r="X53" s="3" t="s">
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="6"/>
+      <c r="X53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="6"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
@@ -2153,26 +2577,66 @@
       <c r="E55" s="1">
         <v>142</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
+      <c r="F55">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G55">
+        <v>0.877</v>
+      </c>
+      <c r="H55">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I55">
+        <v>0.71</v>
+      </c>
+      <c r="J55">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="L55">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M55">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N55">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O55">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="P55">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="R55">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="S55">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="T55">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="U55">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="V55">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="X55">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="Z55">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AA55">
+        <v>0.754</v>
+      </c>
+      <c r="AB55">
+        <v>0.94199999999999995</v>
+      </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -2190,11 +2654,21 @@
       <c r="E56" s="1">
         <v>142</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="F56">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G56">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="H56">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I56">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J56">
+        <v>0.92400000000000004</v>
+      </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -2212,11 +2686,21 @@
       <c r="E57" s="1">
         <v>142</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="F57">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G57">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H57">
+        <v>0.875</v>
+      </c>
+      <c r="I57">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J57">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -2234,11 +2718,21 @@
       <c r="E58" s="1">
         <v>142</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="F58">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G58">
+        <v>0.875</v>
+      </c>
+      <c r="H58">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I58">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J58">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -2256,11 +2750,21 @@
       <c r="E59" s="1">
         <v>142</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="F59">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G59">
+        <v>0.89</v>
+      </c>
+      <c r="H59">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I59">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J59">
+        <v>0.93100000000000005</v>
+      </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -2278,11 +2782,21 @@
       <c r="E60" s="1">
         <v>142</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="F60">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G60">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H60">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I60">
+        <v>0.754</v>
+      </c>
+      <c r="J60">
+        <v>0.92900000000000005</v>
+      </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -2300,11 +2814,21 @@
       <c r="E61" s="1">
         <v>141</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="F61">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G61">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H61">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I61">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="J61">
+        <v>0.93600000000000005</v>
+      </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -2322,11 +2846,21 @@
       <c r="E62" s="1">
         <v>141</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="F62">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G62">
+        <v>0.88</v>
+      </c>
+      <c r="H62">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I62">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J62">
+        <v>0.91900000000000004</v>
+      </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
@@ -2344,11 +2878,21 @@
       <c r="E63" s="1">
         <v>142</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="F63">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G63">
+        <v>0.88</v>
+      </c>
+      <c r="H63">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I63">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="J63">
+        <v>0.92600000000000005</v>
+      </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -2366,63 +2910,73 @@
       <c r="E64" s="1">
         <v>142</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="F64">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G64">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="H64">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="I64">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="J64">
+        <v>0.90200000000000002</v>
+      </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
       <c r="J66" s="1"/>
-      <c r="L66" s="3" t="s">
+      <c r="L66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="5"/>
-      <c r="R66" s="3" t="s">
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="6"/>
+      <c r="R66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="5"/>
-      <c r="X66" s="3" t="s">
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="6"/>
+      <c r="X66" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="6"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="1" t="s">
         <v>6</v>
       </c>
@@ -2720,56 +3274,56 @@
       <c r="J77" s="1"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="1"/>
-      <c r="L79" s="3" t="s">
+      <c r="L79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="5"/>
-      <c r="R79" s="3" t="s">
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="6"/>
+      <c r="R79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="5"/>
-      <c r="X79" s="3" t="s">
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="6"/>
+      <c r="X79" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="6"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="1" t="s">
         <v>6</v>
       </c>
@@ -3067,56 +3621,56 @@
       <c r="J90" s="1"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
       <c r="J92" s="1"/>
-      <c r="L92" s="3" t="s">
+      <c r="L92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="5"/>
-      <c r="R92" s="3" t="s">
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="6"/>
+      <c r="R92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="5"/>
-      <c r="X92" s="3" t="s">
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="6"/>
+      <c r="X92" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AB92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="6"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="1" t="s">
         <v>6</v>
       </c>
@@ -3414,56 +3968,56 @@
       <c r="J103" s="1"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
       <c r="J105" s="1"/>
-      <c r="L105" s="3" t="s">
+      <c r="L105" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="5"/>
-      <c r="R105" s="3" t="s">
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="6"/>
+      <c r="R105" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="5"/>
-      <c r="X105" s="3" t="s">
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="6"/>
+      <c r="X105" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y105" s="4"/>
-      <c r="Z105" s="4"/>
-      <c r="AA105" s="4"/>
-      <c r="AB105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="6"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
       <c r="F106" s="1" t="s">
         <v>6</v>
       </c>
@@ -3761,56 +4315,56 @@
       <c r="J116" s="1"/>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
       <c r="J118" s="1"/>
-      <c r="L118" s="3" t="s">
+      <c r="L118" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="5"/>
-      <c r="R118" s="3" t="s">
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="6"/>
+      <c r="R118" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="5"/>
-      <c r="X118" s="3" t="s">
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="6"/>
+      <c r="X118" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y118" s="4"/>
-      <c r="Z118" s="4"/>
-      <c r="AA118" s="4"/>
-      <c r="AB118" s="5"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="6"/>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
       <c r="F119" s="1" t="s">
         <v>6</v>
       </c>
@@ -4109,53 +4663,33 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="L118:P118"/>
+    <mergeCell ref="R118:V118"/>
+    <mergeCell ref="X118:AB118"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="R92:V92"/>
+    <mergeCell ref="X92:AB92"/>
+    <mergeCell ref="L105:P105"/>
+    <mergeCell ref="R105:V105"/>
+    <mergeCell ref="X105:AB105"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="R66:V66"/>
+    <mergeCell ref="X66:AB66"/>
+    <mergeCell ref="L79:P79"/>
+    <mergeCell ref="R79:V79"/>
+    <mergeCell ref="X79:AB79"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="X40:AB40"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="R53:V53"/>
+    <mergeCell ref="X53:AB53"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="X27:AB27"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="R1:V1"/>
@@ -4172,34 +4706,55 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="X27:AB27"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="X40:AB40"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="R53:V53"/>
-    <mergeCell ref="X53:AB53"/>
-    <mergeCell ref="L66:P66"/>
-    <mergeCell ref="R66:V66"/>
-    <mergeCell ref="X66:AB66"/>
-    <mergeCell ref="L79:P79"/>
-    <mergeCell ref="R79:V79"/>
-    <mergeCell ref="X79:AB79"/>
-    <mergeCell ref="L118:P118"/>
-    <mergeCell ref="R118:V118"/>
-    <mergeCell ref="X118:AB118"/>
-    <mergeCell ref="L92:P92"/>
-    <mergeCell ref="R92:V92"/>
-    <mergeCell ref="X92:AB92"/>
-    <mergeCell ref="L105:P105"/>
-    <mergeCell ref="R105:V105"/>
-    <mergeCell ref="X105:AB105"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/model.xlsx
+++ b/excel/model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiddenpants-H\PycharmProjects\Antioxidant Protein Binary classification\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F609602-B7FF-4FD1-AF1F-3F7D8596A322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C843C6C-DD81-4324-9FEB-E2425891D1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DE2633A-700B-4BFF-9EE5-66DB1F5232EB}"/>
   </bookViews>
@@ -194,6 +194,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -205,15 +214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406722F-D0D7-4218-8B8E-A681B8557960}">
   <dimension ref="A1:AB129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55:J64"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,56 +542,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+      <c r="A1" s="6">
         <v>2538</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="L1" s="4" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
-      <c r="R1" s="4" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="R1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="6"/>
-      <c r="X1" s="4" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="9"/>
+      <c r="X1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="6"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="9"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
@@ -669,19 +669,19 @@
       <c r="E3" s="1">
         <v>142</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="3">
         <v>0.88700000000000001</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="3">
         <v>0.90300000000000002</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <v>0.73599999999999999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <v>0.93700000000000006</v>
       </c>
       <c r="L3" s="1">
@@ -746,19 +746,19 @@
       <c r="E4" s="1">
         <v>142</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>0.84899999999999998</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>0.86599999999999999</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>0.65900000000000003</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="4">
         <v>0.90400000000000003</v>
       </c>
     </row>
@@ -778,19 +778,19 @@
       <c r="E5" s="1">
         <v>142</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>0.86399999999999999</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="4">
         <v>0.879</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="4">
         <v>0.68100000000000005</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="4">
         <v>0.91200000000000003</v>
       </c>
     </row>
@@ -810,19 +810,19 @@
       <c r="E6" s="1">
         <v>142</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <v>0.90500000000000003</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <v>0.95899999999999996</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="4">
         <v>0.95</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="4">
         <v>0.82499999999999996</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="4">
         <v>0.93200000000000005</v>
       </c>
     </row>
@@ -842,19 +842,19 @@
       <c r="E7" s="1">
         <v>142</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>0.94299999999999995</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="4">
         <v>0.94799999999999995</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="4">
         <v>0.83499999999999996</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="4">
         <v>0.95799999999999996</v>
       </c>
     </row>
@@ -874,19 +874,19 @@
       <c r="E8" s="1">
         <v>142</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>0.89700000000000002</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="4">
         <v>0.90900000000000003</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="4">
         <v>0.74399999999999999</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="4">
         <v>0.93500000000000005</v>
       </c>
     </row>
@@ -906,19 +906,19 @@
       <c r="E9" s="1">
         <v>141</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>0.91500000000000004</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="4">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="4">
         <v>0.77700000000000002</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="4">
         <v>0.94399999999999995</v>
       </c>
     </row>
@@ -938,19 +938,19 @@
       <c r="E10" s="1">
         <v>141</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>0.86899999999999999</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="4">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="4">
         <v>0.70799999999999996</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="4">
         <v>0.92800000000000005</v>
       </c>
     </row>
@@ -970,19 +970,19 @@
       <c r="E11" s="1">
         <v>142</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <v>0.94099999999999995</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="4">
         <v>0.94399999999999995</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="4">
         <v>0.82</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="4">
         <v>0.95</v>
       </c>
     </row>
@@ -1002,73 +1002,73 @@
       <c r="E12" s="1">
         <v>142</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="5">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="5">
         <v>0.83599999999999997</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="5">
         <v>0.86</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="5">
         <v>0.66</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="5">
         <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>3128</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="R14" s="4" t="s">
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="R14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="6"/>
-      <c r="X14" s="4" t="s">
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="9"/>
+      <c r="X14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="6"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="9"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1146,19 +1146,19 @@
       <c r="E16" s="1">
         <v>142</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>0.83599999999999997</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="3">
         <v>0.86</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="3">
         <v>0.66</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="3">
         <v>0.91100000000000003</v>
       </c>
       <c r="L16" s="1">
@@ -1223,19 +1223,19 @@
       <c r="E17" s="1">
         <v>142</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>0.9</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="4">
         <v>0.91400000000000003</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="4">
         <v>0.75800000000000001</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="4">
         <v>0.94299999999999995</v>
       </c>
     </row>
@@ -1255,19 +1255,19 @@
       <c r="E18" s="1">
         <v>142</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <v>0.81299999999999994</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="4">
         <v>0.83899999999999997</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="4">
         <v>0.621</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="4">
         <v>0.98299999999999998</v>
       </c>
     </row>
@@ -1287,19 +1287,19 @@
       <c r="E19" s="1">
         <v>142</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>0.91800000000000004</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="4">
         <v>0.92600000000000005</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="4">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="4">
         <v>0.76</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="4">
         <v>0.92200000000000004</v>
       </c>
     </row>
@@ -1319,19 +1319,19 @@
       <c r="E20" s="1">
         <v>142</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <v>0.85899999999999999</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="4">
         <v>0.879</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="4">
         <v>0.69199999999999995</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="4">
         <v>0.92300000000000004</v>
       </c>
     </row>
@@ -1351,19 +1351,19 @@
       <c r="E21" s="1">
         <v>142</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="4">
         <v>0.86399999999999999</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="4">
         <v>0.879</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="4">
         <v>0.68100000000000005</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="4">
         <v>0.91200000000000003</v>
       </c>
     </row>
@@ -1383,19 +1383,19 @@
       <c r="E22" s="1">
         <v>141</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="4">
         <v>0.89700000000000002</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="4">
         <v>0.90700000000000003</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="4">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="4">
         <v>0.92800000000000005</v>
       </c>
     </row>
@@ -1415,19 +1415,19 @@
       <c r="E23" s="1">
         <v>141</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="4">
         <v>0.88200000000000001</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="4">
         <v>0.89600000000000002</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="4">
         <v>0.71899999999999997</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="4">
         <v>0.92700000000000005</v>
       </c>
     </row>
@@ -1447,19 +1447,19 @@
       <c r="E24" s="1">
         <v>142</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>0.93200000000000005</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4">
         <v>0.92</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="4">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="4">
         <v>0.75900000000000001</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="4">
         <v>0.92600000000000005</v>
       </c>
     </row>
@@ -1479,73 +1479,73 @@
       <c r="E25" s="1">
         <v>142</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="5">
         <v>0.85099999999999998</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="5">
         <v>0.96099999999999997</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="5">
         <v>0.94399999999999995</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="5">
         <v>0.79600000000000004</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="5">
         <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>6210</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="6"/>
-      <c r="R27" s="4" t="s">
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+      <c r="R27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="6"/>
-      <c r="X27" s="4" t="s">
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="9"/>
+      <c r="X27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="6"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="9"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1973,56 +1973,56 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>6233</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="1"/>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6"/>
-      <c r="R40" s="4" t="s">
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="9"/>
+      <c r="R40" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="6"/>
-      <c r="X40" s="4" t="s">
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="9"/>
+      <c r="X40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="6"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="9"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
@@ -2450,56 +2450,56 @@
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="6">
         <v>8730</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="1"/>
-      <c r="L53" s="4" t="s">
+      <c r="L53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="6"/>
-      <c r="R53" s="4" t="s">
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="9"/>
+      <c r="R53" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="6"/>
-      <c r="X53" s="4" t="s">
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="9"/>
+      <c r="X53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="6"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="9"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="1" t="s">
         <v>6</v>
       </c>
@@ -2927,56 +2927,56 @@
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
       <c r="J66" s="1"/>
-      <c r="L66" s="4" t="s">
+      <c r="L66" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="6"/>
-      <c r="R66" s="4" t="s">
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="9"/>
+      <c r="R66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="6"/>
-      <c r="X66" s="4" t="s">
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="9"/>
+      <c r="X66" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="6"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="9"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="1" t="s">
         <v>6</v>
       </c>
@@ -3274,56 +3274,56 @@
       <c r="J77" s="1"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
       <c r="J79" s="1"/>
-      <c r="L79" s="4" t="s">
+      <c r="L79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="6"/>
-      <c r="R79" s="4" t="s">
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="9"/>
+      <c r="R79" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="6"/>
-      <c r="X79" s="4" t="s">
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
+      <c r="U79" s="8"/>
+      <c r="V79" s="9"/>
+      <c r="X79" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="6"/>
+      <c r="Y79" s="8"/>
+      <c r="Z79" s="8"/>
+      <c r="AA79" s="8"/>
+      <c r="AB79" s="9"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
       <c r="F80" s="1" t="s">
         <v>6</v>
       </c>
@@ -3621,56 +3621,56 @@
       <c r="J90" s="1"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
       <c r="J92" s="1"/>
-      <c r="L92" s="4" t="s">
+      <c r="L92" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="6"/>
-      <c r="R92" s="4" t="s">
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="9"/>
+      <c r="R92" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="6"/>
-      <c r="X92" s="4" t="s">
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="9"/>
+      <c r="X92" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
-      <c r="AB92" s="6"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="9"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
       <c r="F93" s="1" t="s">
         <v>6</v>
       </c>
@@ -3968,56 +3968,56 @@
       <c r="J103" s="1"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
       <c r="J105" s="1"/>
-      <c r="L105" s="4" t="s">
+      <c r="L105" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="6"/>
-      <c r="R105" s="4" t="s">
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="9"/>
+      <c r="R105" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="6"/>
-      <c r="X105" s="4" t="s">
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="9"/>
+      <c r="X105" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-      <c r="AA105" s="5"/>
-      <c r="AB105" s="6"/>
+      <c r="Y105" s="8"/>
+      <c r="Z105" s="8"/>
+      <c r="AA105" s="8"/>
+      <c r="AB105" s="9"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
       <c r="F106" s="1" t="s">
         <v>6</v>
       </c>
@@ -4315,56 +4315,56 @@
       <c r="J116" s="1"/>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
       <c r="J118" s="1"/>
-      <c r="L118" s="4" t="s">
+      <c r="L118" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="6"/>
-      <c r="R118" s="4" t="s">
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="9"/>
+      <c r="R118" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5"/>
-      <c r="V118" s="6"/>
-      <c r="X118" s="4" t="s">
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
+      <c r="U118" s="8"/>
+      <c r="V118" s="9"/>
+      <c r="X118" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
-      <c r="AA118" s="5"/>
-      <c r="AB118" s="6"/>
+      <c r="Y118" s="8"/>
+      <c r="Z118" s="8"/>
+      <c r="AA118" s="8"/>
+      <c r="AB118" s="9"/>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
       <c r="F119" s="1" t="s">
         <v>6</v>
       </c>

--- a/excel/model.xlsx
+++ b/excel/model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiddenpants-H\PycharmProjects\Antioxidant Protein Binary classification\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiddenpants-H\PycharmProjects\antioxidant-protein-classify\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C843C6C-DD81-4324-9FEB-E2425891D1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A653ED-0ECE-4B8A-BF46-2FC5A0902471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DE2633A-700B-4BFF-9EE5-66DB1F5232EB}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="15">
-  <si>
-    <t>model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="14">
   <si>
     <t>train positive</t>
   </si>
@@ -71,30 +68,23 @@
     <t>s</t>
   </si>
   <si>
-    <t>vote</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>voting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,44 +158,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -213,6 +173,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -529,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406722F-D0D7-4218-8B8E-A681B8557960}">
-  <dimension ref="A1:AB129"/>
+  <dimension ref="A1:AB246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="S238" sqref="S238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,115 +506,89 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
-        <v>2538</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="L1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="9"/>
-      <c r="R1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="9"/>
-      <c r="X1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="9"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="5"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -669,66 +606,49 @@
       <c r="E3" s="1">
         <v>142</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0.95</v>
-      </c>
+      <c r="F3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.875</v>
+      </c>
+      <c r="H3">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M3">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N3">
+        <v>0.92</v>
+      </c>
+      <c r="O3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -746,20 +666,38 @@
       <c r="E4" s="1">
         <v>142</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.90400000000000003</v>
+      <c r="F4">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G4">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M4">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N4">
+        <v>0.92</v>
+      </c>
+      <c r="O4">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.98</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -778,20 +716,38 @@
       <c r="E5" s="1">
         <v>142</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G5" s="4">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.879</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.91200000000000003</v>
+      <c r="G5">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="O5">
+        <v>0.754</v>
+      </c>
+      <c r="P5">
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -810,20 +766,20 @@
       <c r="E6" s="1">
         <v>142</v>
       </c>
-      <c r="F6" s="4">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.93200000000000005</v>
+      <c r="F6">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -842,20 +798,20 @@
       <c r="E7" s="1">
         <v>142</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G7" s="4">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.95799999999999996</v>
+      <c r="G7">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -874,20 +830,20 @@
       <c r="E8" s="1">
         <v>142</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J8">
         <v>0.97199999999999998</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -906,20 +862,20 @@
       <c r="E9" s="1">
         <v>141</v>
       </c>
-      <c r="F9" s="4">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G9">
         <v>0.91500000000000004</v>
       </c>
-      <c r="H9" s="4">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0.94399999999999995</v>
+      <c r="H9">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I9">
+        <v>0.74</v>
+      </c>
+      <c r="J9">
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -938,20 +894,20 @@
       <c r="E10" s="1">
         <v>141</v>
       </c>
-      <c r="F10" s="4">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0.92800000000000005</v>
+      <c r="F10">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I10">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="J10">
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -970,23 +926,23 @@
       <c r="E11" s="1">
         <v>142</v>
       </c>
-      <c r="F11" s="4">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.88</v>
+      </c>
+      <c r="H11">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1002,133 +958,107 @@
       <c r="E12" s="1">
         <v>142</v>
       </c>
-      <c r="F12" s="5">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.91100000000000003</v>
+      <c r="F12">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G12">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H12">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I12">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>3128</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="9"/>
-      <c r="R14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="9"/>
-      <c r="X14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="9"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1146,66 +1076,49 @@
       <c r="E16" s="1">
         <v>142</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G16">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H16">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="J16">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G16" s="3">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="Y16" s="2">
+      <c r="M16">
         <v>0.90800000000000003</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="N16">
         <v>0.92</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="O16">
         <v>0.77200000000000002</v>
       </c>
-      <c r="AB16" s="2">
-        <v>0.94699999999999995</v>
-      </c>
+      <c r="P16">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1223,20 +1136,38 @@
       <c r="E17" s="1">
         <v>142</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G17" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0.94299999999999995</v>
+      <c r="G17">
+        <v>0.872</v>
+      </c>
+      <c r="H17">
+        <v>0.89</v>
+      </c>
+      <c r="I17">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="J17">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N17">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="O17">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="P17">
+        <v>0.98099999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -1255,20 +1186,38 @@
       <c r="E18" s="1">
         <v>142</v>
       </c>
-      <c r="F18" s="4">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0.621</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0.98299999999999998</v>
+      <c r="F18">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G18">
+        <v>0.9</v>
+      </c>
+      <c r="H18">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I18">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="J18">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M18">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N18">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="O18">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -1287,20 +1236,20 @@
       <c r="E19" s="1">
         <v>142</v>
       </c>
-      <c r="F19" s="4">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0.92200000000000004</v>
+      <c r="F19">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G19">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J19">
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -1319,20 +1268,20 @@
       <c r="E20" s="1">
         <v>142</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G20" s="4">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.879</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.92300000000000004</v>
+      <c r="G20">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H20">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0.64</v>
+      </c>
+      <c r="J20">
+        <v>0.98</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -1351,20 +1300,20 @@
       <c r="E21" s="1">
         <v>142</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G21" s="4">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.879</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="G21">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H21">
         <v>0.91200000000000003</v>
+      </c>
+      <c r="I21">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -1383,20 +1332,20 @@
       <c r="E22" s="1">
         <v>141</v>
       </c>
-      <c r="F22" s="4">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="F22">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G22">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H22">
         <v>0.90700000000000003</v>
       </c>
-      <c r="I22" s="4">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0.92800000000000005</v>
+      <c r="I22">
+        <v>0.74</v>
+      </c>
+      <c r="J22">
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
@@ -1415,20 +1364,20 @@
       <c r="E23" s="1">
         <v>141</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G23" s="4">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.92700000000000005</v>
+      <c r="G23">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="J23">
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -1447,23 +1396,23 @@
       <c r="E24" s="1">
         <v>142</v>
       </c>
-      <c r="F24" s="4">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0.92600000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H24">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I24">
+        <v>0.74</v>
+      </c>
+      <c r="J24">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -1479,66 +1428,60 @@
       <c r="E25" s="1">
         <v>142</v>
       </c>
-      <c r="F25" s="5">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.90600000000000003</v>
+      <c r="F25">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G25">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="J25">
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>6210</v>
+        <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="9"/>
-      <c r="R27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="9"/>
-      <c r="X27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="9"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="5"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
@@ -1547,65 +1490,45 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1623,66 +1546,49 @@
       <c r="E29" s="1">
         <v>142</v>
       </c>
-      <c r="F29" s="1">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="F29">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H29">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I29">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J29">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29">
         <v>0.97199999999999998</v>
       </c>
-      <c r="M29" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="T29" s="1">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="X29" s="2">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>0.94499999999999995</v>
-      </c>
+      <c r="M29">
+        <v>0.91</v>
+      </c>
+      <c r="N29">
+        <v>0.92</v>
+      </c>
+      <c r="O29">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="P29">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1700,20 +1606,38 @@
       <c r="E30" s="1">
         <v>142</v>
       </c>
-      <c r="F30" s="1">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.91600000000000004</v>
+      <c r="F30">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="H30">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I30">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J30">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M30">
+        <v>0.9</v>
+      </c>
+      <c r="N30">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O30">
+        <v>0.749</v>
+      </c>
+      <c r="P30">
+        <v>0.98099999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -1732,20 +1656,38 @@
       <c r="E31" s="1">
         <v>142</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G31" s="1">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.90800000000000003</v>
+      <c r="G31">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H31">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I31">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="J31">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M31">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N31">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="O31">
+        <v>0.753</v>
+      </c>
+      <c r="P31">
+        <v>0.98099999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -1764,20 +1706,20 @@
       <c r="E32" s="1">
         <v>142</v>
       </c>
-      <c r="F32" s="1">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.94499999999999995</v>
+      <c r="F32">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G32">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H32">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I32">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J32">
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
@@ -1796,20 +1738,20 @@
       <c r="E33" s="1">
         <v>142</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>0.94499999999999995</v>
       </c>
-      <c r="G33" s="1">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.93400000000000005</v>
+      <c r="G33">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I33">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J33">
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
@@ -1828,20 +1770,20 @@
       <c r="E34" s="1">
         <v>142</v>
       </c>
-      <c r="F34" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.879</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.91700000000000004</v>
+      <c r="F34">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G34">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H34">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I34">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J34">
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
@@ -1860,20 +1802,20 @@
       <c r="E35" s="1">
         <v>141</v>
       </c>
-      <c r="F35" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.92900000000000005</v>
+      <c r="F35">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G35">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H35">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I35">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="J35">
+        <v>0.96399999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
@@ -1892,20 +1834,20 @@
       <c r="E36" s="1">
         <v>141</v>
       </c>
-      <c r="F36" s="1">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.872</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.92200000000000004</v>
+      <c r="F36">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G36">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H36">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="J36">
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
@@ -1924,20 +1866,20 @@
       <c r="E37" s="1">
         <v>142</v>
       </c>
-      <c r="F37" s="1">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.95399999999999996</v>
+      <c r="F37">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G37">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="H37">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="I37">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="J37">
+        <v>0.98</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
@@ -1956,66 +1898,60 @@
       <c r="E38" s="1">
         <v>142</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G38" s="1">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.92</v>
+      <c r="G38">
+        <v>0.877</v>
+      </c>
+      <c r="H38">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I38">
+        <v>0.71</v>
+      </c>
+      <c r="J38">
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>6233</v>
+        <v>31</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="1"/>
-      <c r="L40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="9"/>
-      <c r="R40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="9"/>
-      <c r="X40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="9"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="5"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="5"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="5"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
@@ -2024,65 +1960,45 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -2101,64 +2017,37 @@
         <v>142</v>
       </c>
       <c r="F42">
-        <v>0.95899999999999996</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="G42">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="H42">
-        <v>0.89200000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="I42">
-        <v>0.70499999999999996</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="J42">
-        <v>0.91900000000000004</v>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K42" t="s">
+        <v>13</v>
       </c>
       <c r="L42">
-        <v>0.98599999999999999</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="M42">
-        <v>0.91800000000000004</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="N42">
-        <v>0.92900000000000005</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="O42">
-        <v>0.79100000000000004</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="P42">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="R42">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="S42">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="T42">
-        <v>0.92</v>
-      </c>
-      <c r="U42">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="V42">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="X42">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="Y42">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="Z42">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="AA42">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="AB42">
-        <v>0.95099999999999996</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
@@ -2178,19 +2067,37 @@
         <v>142</v>
       </c>
       <c r="F43">
-        <v>0.97199999999999998</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="G43">
-        <v>0.90800000000000003</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H43">
-        <v>0.91800000000000004</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I43">
-        <v>0.76300000000000001</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="J43">
-        <v>0.94</v>
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M43">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="N43">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O43">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="P43">
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
@@ -2210,19 +2117,37 @@
         <v>142</v>
       </c>
       <c r="F44">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G44">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H44">
+        <v>0.879</v>
+      </c>
+      <c r="I44">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="J44">
         <v>0.97199999999999998</v>
       </c>
-      <c r="G44">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="H44">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="I44">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="J44">
-        <v>0.93500000000000005</v>
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M44">
+        <v>0.92</v>
+      </c>
+      <c r="N44">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O44">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="P44">
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.25">
@@ -2242,19 +2167,19 @@
         <v>142</v>
       </c>
       <c r="F45">
-        <v>0.98599999999999999</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="G45">
-        <v>0.83899999999999997</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="H45">
-        <v>0.86199999999999999</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I45">
-        <v>0.66300000000000003</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="J45">
-        <v>0.91200000000000003</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
@@ -2274,19 +2199,19 @@
         <v>142</v>
       </c>
       <c r="F46">
-        <v>0.98599999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="G46">
-        <v>0.86399999999999999</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="H46">
-        <v>0.88400000000000001</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="I46">
-        <v>0.7</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="J46">
-        <v>0.92500000000000004</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
@@ -2306,19 +2231,19 @@
         <v>142</v>
       </c>
       <c r="F47">
-        <v>0.89100000000000001</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="G47">
-        <v>0.96399999999999997</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="H47">
-        <v>0.95199999999999996</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="I47">
-        <v>0.82899999999999996</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="J47">
-        <v>0.92800000000000005</v>
+        <v>0.97699999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
@@ -2338,19 +2263,19 @@
         <v>141</v>
       </c>
       <c r="F48">
-        <v>0.98599999999999999</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="G48">
-        <v>0.83399999999999996</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="H48">
-        <v>0.85799999999999998</v>
+        <v>0.871</v>
       </c>
       <c r="I48">
-        <v>0.65600000000000003</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="J48">
-        <v>0.91</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
@@ -2370,19 +2295,19 @@
         <v>141</v>
       </c>
       <c r="F49">
-        <v>0.94499999999999995</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="G49">
-        <v>0.85699999999999998</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="H49">
-        <v>0.871</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="I49">
-        <v>0.66</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="J49">
-        <v>0.90100000000000002</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.25">
@@ -2405,16 +2330,16 @@
         <v>0.93200000000000005</v>
       </c>
       <c r="G50">
-        <v>0.89</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="H50">
-        <v>0.89600000000000002</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="I50">
-        <v>0.70299999999999996</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="J50">
-        <v>0.91100000000000003</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
@@ -2434,65 +2359,59 @@
         <v>142</v>
       </c>
       <c r="F51">
-        <v>0.95899999999999996</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G51">
-        <v>0.89500000000000002</v>
+        <v>0.91</v>
       </c>
       <c r="H51">
-        <v>0.90500000000000003</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I51">
-        <v>0.73099999999999998</v>
+        <v>0.749</v>
       </c>
       <c r="J51">
-        <v>0.92700000000000005</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>8730</v>
+        <v>37</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
-      <c r="L53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="9"/>
-      <c r="R53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="9"/>
-      <c r="X53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="9"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="5"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="5"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="5"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -2501,65 +2420,45 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -2578,64 +2477,37 @@
         <v>142</v>
       </c>
       <c r="F55">
-        <v>0.97199999999999998</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G55">
-        <v>0.877</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="H55">
-        <v>0.89200000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="I55">
-        <v>0.71</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="J55">
-        <v>0.92500000000000004</v>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K55" t="s">
+        <v>13</v>
       </c>
       <c r="L55">
         <v>0.98599999999999999</v>
       </c>
       <c r="M55">
-        <v>0.91300000000000003</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="N55">
-        <v>0.92400000000000004</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="O55">
-        <v>0.78100000000000003</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="P55">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="R55">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="S55">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="T55">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="U55">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="V55">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="X55">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="Y55">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="Z55">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="AA55">
-        <v>0.754</v>
-      </c>
-      <c r="AB55">
-        <v>0.94199999999999995</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
@@ -2658,16 +2530,34 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="G56">
-        <v>0.86199999999999999</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="H56">
-        <v>0.88100000000000001</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="I56">
-        <v>0.69599999999999995</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="J56">
-        <v>0.92400000000000004</v>
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K56" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M56">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N56">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="O56">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="P56">
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
@@ -2687,19 +2577,37 @@
         <v>142</v>
       </c>
       <c r="F57">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G57">
+        <v>0.89</v>
+      </c>
+      <c r="H57">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I57">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J57">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57">
         <v>0.98599999999999999</v>
       </c>
-      <c r="G57">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="H57">
-        <v>0.875</v>
-      </c>
-      <c r="I57">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="J57">
-        <v>0.92</v>
+      <c r="M57">
+        <v>0.91</v>
+      </c>
+      <c r="N57">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O57">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="P57">
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
@@ -2719,19 +2627,19 @@
         <v>142</v>
       </c>
       <c r="F58">
-        <v>0.98599999999999999</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="G58">
-        <v>0.875</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="H58">
-        <v>0.89200000000000002</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="I58">
-        <v>0.71599999999999997</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="J58">
-        <v>0.93</v>
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
@@ -2751,19 +2659,19 @@
         <v>142</v>
       </c>
       <c r="F59">
-        <v>0.97199999999999998</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G59">
-        <v>0.89</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="H59">
-        <v>0.90300000000000002</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="I59">
-        <v>0.73099999999999998</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="J59">
-        <v>0.93100000000000005</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
@@ -2783,19 +2691,19 @@
         <v>142</v>
       </c>
       <c r="F60">
-        <v>0.94499999999999995</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="G60">
-        <v>0.91300000000000003</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="H60">
-        <v>0.91800000000000004</v>
+        <v>0.877</v>
       </c>
       <c r="I60">
-        <v>0.754</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="J60">
-        <v>0.92900000000000005</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.25">
@@ -2815,19 +2723,19 @@
         <v>141</v>
       </c>
       <c r="F61">
-        <v>0.91800000000000004</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="G61">
-        <v>0.95399999999999996</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="H61">
-        <v>0.94799999999999995</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I61">
-        <v>0.82199999999999995</v>
+        <v>0.749</v>
       </c>
       <c r="J61">
-        <v>0.93600000000000005</v>
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
@@ -2847,19 +2755,19 @@
         <v>141</v>
       </c>
       <c r="F62">
-        <v>0.95899999999999996</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G62">
-        <v>0.88</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="H62">
-        <v>0.89200000000000002</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="I62">
-        <v>0.70499999999999996</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="J62">
-        <v>0.91900000000000004</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
@@ -2882,16 +2790,16 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="G63">
-        <v>0.88</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="H63">
-        <v>0.89400000000000002</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="I63">
-        <v>0.71499999999999997</v>
+        <v>0.64</v>
       </c>
       <c r="J63">
-        <v>0.92600000000000005</v>
+        <v>0.96899999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
@@ -2911,65 +2819,59 @@
         <v>142</v>
       </c>
       <c r="F64">
-        <v>0.98599999999999999</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G64">
-        <v>0.81799999999999995</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="H64">
-        <v>0.84499999999999997</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="I64">
-        <v>0.63700000000000001</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="J64">
-        <v>0.90200000000000002</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="6">
+        <v>43</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="1"/>
-      <c r="L66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="9"/>
-      <c r="R66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="9"/>
-      <c r="X66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="9"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="5"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="5"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="5"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
@@ -2978,65 +2880,45 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="P67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -3054,16 +2936,39 @@
       <c r="E68" s="1">
         <v>142</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="F68">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G68">
+        <v>0.91</v>
+      </c>
+      <c r="H68">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I68">
+        <v>0.74</v>
+      </c>
+      <c r="J68">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K68" t="s">
+        <v>13</v>
+      </c>
+      <c r="L68">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M68">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N68">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O68">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="P68">
+        <v>0.97399999999999998</v>
+      </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
@@ -3091,11 +2996,39 @@
       <c r="E69" s="1">
         <v>142</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="F69">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G69">
+        <v>0.91</v>
+      </c>
+      <c r="H69">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I69">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J69">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M69">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="N69">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="O69">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="P69">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -3113,11 +3046,39 @@
       <c r="E70" s="1">
         <v>142</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="F70">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G70">
+        <v>0.88</v>
+      </c>
+      <c r="H70">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I70">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J70">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M70">
+        <v>0.9</v>
+      </c>
+      <c r="N70">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="O70">
+        <v>0.74</v>
+      </c>
+      <c r="P70">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -3135,11 +3096,21 @@
       <c r="E71" s="1">
         <v>142</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="F71">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G71">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H71">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I71">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J71">
+        <v>0.97299999999999998</v>
+      </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -3157,11 +3128,21 @@
       <c r="E72" s="1">
         <v>142</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="F72">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G72">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H72">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="I72">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="J72">
+        <v>0.96599999999999997</v>
+      </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
@@ -3179,11 +3160,21 @@
       <c r="E73" s="1">
         <v>142</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="F73">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G73">
+        <v>0.872</v>
+      </c>
+      <c r="H73">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I73">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J73">
+        <v>0.97699999999999998</v>
+      </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -3201,11 +3192,21 @@
       <c r="E74" s="1">
         <v>141</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="F74">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G74">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H74">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I74">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J74">
+        <v>0.97899999999999998</v>
+      </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -3223,11 +3224,21 @@
       <c r="E75" s="1">
         <v>141</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="F75">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G75">
+        <v>0.88</v>
+      </c>
+      <c r="H75">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I75">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="J75">
+        <v>0.98099999999999998</v>
+      </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
@@ -3245,11 +3256,21 @@
       <c r="E76" s="1">
         <v>142</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="F76">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G76">
+        <v>0.91</v>
+      </c>
+      <c r="H76">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I76">
+        <v>0.73</v>
+      </c>
+      <c r="J76">
+        <v>0.96399999999999997</v>
+      </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -3267,56 +3288,60 @@
       <c r="E77" s="1">
         <v>142</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="F77">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G77">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H77">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I77">
+        <v>0.755</v>
+      </c>
+      <c r="J77">
+        <v>0.97499999999999998</v>
+      </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="6">
+        <v>61</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="1"/>
-      <c r="L79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="9"/>
-      <c r="R79" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="9"/>
-      <c r="X79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="8"/>
-      <c r="AB79" s="9"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="5"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="5"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="5"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
@@ -3325,65 +3350,45 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="P80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB80" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -3401,16 +3406,39 @@
       <c r="E81" s="1">
         <v>142</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
+      <c r="F81">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G81">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H81">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I81">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="J81">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K81" t="s">
+        <v>13</v>
+      </c>
+      <c r="L81">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M81">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N81">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O81">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="P81">
+        <v>0.98</v>
+      </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -3438,11 +3466,39 @@
       <c r="E82" s="1">
         <v>142</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="F82">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G82">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H82">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I82">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="J82">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K82" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M82">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N82">
+        <v>0.92</v>
+      </c>
+      <c r="O82">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="P82">
+        <v>0.98099999999999998</v>
+      </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
@@ -3460,11 +3516,39 @@
       <c r="E83" s="1">
         <v>142</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="F83">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G83">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H83">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="I83">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="J83">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K83" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M83">
+        <v>0.91</v>
+      </c>
+      <c r="N83">
+        <v>0.92</v>
+      </c>
+      <c r="O83">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="P83">
+        <v>0.98199999999999998</v>
+      </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -3482,11 +3566,21 @@
       <c r="E84" s="1">
         <v>142</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="F84">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G84">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H84">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I84">
+        <v>0.74</v>
+      </c>
+      <c r="J84">
+        <v>0.97399999999999998</v>
+      </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -3504,11 +3598,21 @@
       <c r="E85" s="1">
         <v>142</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="F85">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G85">
+        <v>0.88</v>
+      </c>
+      <c r="H85">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I85">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="J85">
+        <v>0.97699999999999998</v>
+      </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -3526,11 +3630,21 @@
       <c r="E86" s="1">
         <v>142</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="F86">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G86">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H86">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="I86">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="J86">
+        <v>0.97899999999999998</v>
+      </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -3548,11 +3662,21 @@
       <c r="E87" s="1">
         <v>141</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="F87">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G87">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H87">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I87">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="J87">
+        <v>0.97799999999999998</v>
+      </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -3570,11 +3694,21 @@
       <c r="E88" s="1">
         <v>141</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="F88">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G88">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H88">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I88">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J88">
+        <v>0.97699999999999998</v>
+      </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
@@ -3592,11 +3726,21 @@
       <c r="E89" s="1">
         <v>142</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="F89">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G89">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H89">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I89">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J89">
+        <v>0.97799999999999998</v>
+      </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -3614,56 +3758,60 @@
       <c r="E90" s="1">
         <v>142</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="F90">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G90">
+        <v>0.88</v>
+      </c>
+      <c r="H90">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I90">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="J90">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="6">
+        <v>67</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="F92" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="1"/>
-      <c r="L92" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="9"/>
-      <c r="R92" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="9"/>
-      <c r="X92" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="8"/>
-      <c r="AA92" s="8"/>
-      <c r="AB92" s="9"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="5"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="5"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="5"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
@@ -3672,65 +3820,45 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="N93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="P93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB93" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -3748,16 +3876,39 @@
       <c r="E94" s="1">
         <v>142</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
+      <c r="F94">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G94">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H94">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I94">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J94">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="K94" t="s">
+        <v>13</v>
+      </c>
+      <c r="L94">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M94">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="N94">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O94">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="P94">
+        <v>0.97599999999999998</v>
+      </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -3785,11 +3936,39 @@
       <c r="E95" s="1">
         <v>142</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="F95">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G95">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H95">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I95">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J95">
+        <v>0.97</v>
+      </c>
+      <c r="K95" t="s">
+        <v>11</v>
+      </c>
+      <c r="L95">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M95">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="N95">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="O95">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="P95">
+        <v>0.98099999999999998</v>
+      </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -3807,11 +3986,39 @@
       <c r="E96" s="1">
         <v>142</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="F96">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G96">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H96">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I96">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J96">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K96" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M96">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N96">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O96">
+        <v>0.74</v>
+      </c>
+      <c r="P96">
+        <v>0.98099999999999998</v>
+      </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -3829,11 +4036,21 @@
       <c r="E97" s="1">
         <v>142</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="F97">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G97">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H97">
+        <v>0.871</v>
+      </c>
+      <c r="I97">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="J97">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -3851,11 +4068,21 @@
       <c r="E98" s="1">
         <v>142</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="F98">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G98">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H98">
+        <v>0.873</v>
+      </c>
+      <c r="I98">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="J98">
+        <v>0.97699999999999998</v>
+      </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -3873,11 +4100,21 @@
       <c r="E99" s="1">
         <v>142</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="F99">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G99">
+        <v>0.875</v>
+      </c>
+      <c r="H99">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I99">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="J99">
+        <v>0.97799999999999998</v>
+      </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
@@ -3895,11 +4132,21 @@
       <c r="E100" s="1">
         <v>141</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="F100">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G100">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H100">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I100">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J100">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -3917,11 +4164,21 @@
       <c r="E101" s="1">
         <v>141</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="F101">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G101">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H101">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I101">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="J101">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -3939,11 +4196,21 @@
       <c r="E102" s="1">
         <v>142</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="F102">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G102">
+        <v>0.92</v>
+      </c>
+      <c r="H102">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I102">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J102">
+        <v>0.96299999999999997</v>
+      </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -3961,56 +4228,60 @@
       <c r="E103" s="1">
         <v>142</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="F103">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G103">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H103">
+        <v>0.879</v>
+      </c>
+      <c r="I103">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="J103">
+        <v>0.97599999999999998</v>
+      </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="6">
+        <v>73</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="C105" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="1"/>
-      <c r="L105" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="9"/>
-      <c r="R105" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="9"/>
-      <c r="X105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y105" s="8"/>
-      <c r="Z105" s="8"/>
-      <c r="AA105" s="8"/>
-      <c r="AB105" s="9"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="5"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="5"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="5"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
@@ -4019,65 +4290,45 @@
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="J106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M106" s="1" t="s">
+      <c r="N106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N106" s="1" t="s">
+      <c r="O106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O106" s="1" t="s">
+      <c r="P106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V106" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB106" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -4095,16 +4346,39 @@
       <c r="E107" s="1">
         <v>142</v>
       </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
+      <c r="F107">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G107">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H107">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I107">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="J107">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="M107">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="N107">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="O107">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="P107">
+        <v>0.97799999999999998</v>
+      </c>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
@@ -4132,11 +4406,39 @@
       <c r="E108" s="1">
         <v>142</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="F108">
+        <v>0.878</v>
+      </c>
+      <c r="G108">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H108">
+        <v>0.95</v>
+      </c>
+      <c r="I108">
+        <v>0.82</v>
+      </c>
+      <c r="J108">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="K108" t="s">
+        <v>11</v>
+      </c>
+      <c r="L108">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M108">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N108">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O108">
+        <v>0.74</v>
+      </c>
+      <c r="P108">
+        <v>0.97799999999999998</v>
+      </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -4154,11 +4456,39 @@
       <c r="E109" s="1">
         <v>142</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="F109">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G109">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H109">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I109">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="J109">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K109" t="s">
+        <v>12</v>
+      </c>
+      <c r="L109">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M109">
+        <v>0.92</v>
+      </c>
+      <c r="N109">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O109">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="P109">
+        <v>0.97699999999999998</v>
+      </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -4176,11 +4506,21 @@
       <c r="E110" s="1">
         <v>142</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="F110">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G110">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H110">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I110">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="J110">
+        <v>0.97399999999999998</v>
+      </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -4198,11 +4538,21 @@
       <c r="E111" s="1">
         <v>142</v>
       </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="F111">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G111">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H111">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I111">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J111">
+        <v>0.97499999999999998</v>
+      </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -4220,11 +4570,21 @@
       <c r="E112" s="1">
         <v>142</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="F112">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G112">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="H112">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="I112">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="J112">
+        <v>0.97099999999999997</v>
+      </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -4242,11 +4602,21 @@
       <c r="E113" s="1">
         <v>141</v>
       </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="F113">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G113">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H113">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I113">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="J113">
+        <v>0.96599999999999997</v>
+      </c>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -4264,11 +4634,21 @@
       <c r="E114" s="1">
         <v>141</v>
       </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="F114">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G114">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H114">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I114">
+        <v>0.81</v>
+      </c>
+      <c r="J114">
+        <v>0.97499999999999998</v>
+      </c>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -4286,11 +4666,21 @@
       <c r="E115" s="1">
         <v>142</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="F115">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G115">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H115">
+        <v>0.89</v>
+      </c>
+      <c r="I115">
+        <v>0.69</v>
+      </c>
+      <c r="J115">
+        <v>0.97399999999999998</v>
+      </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -4308,56 +4698,60 @@
       <c r="E116" s="1">
         <v>142</v>
       </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="F116">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G116">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="H116">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I116">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="J116">
+        <v>0.97499999999999998</v>
+      </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="6">
+        <v>79</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="C118" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="D118" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="F118" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
       <c r="J118" s="1"/>
-      <c r="L118" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="9"/>
-      <c r="R118" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="9"/>
-      <c r="X118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y118" s="8"/>
-      <c r="Z118" s="8"/>
-      <c r="AA118" s="8"/>
-      <c r="AB118" s="9"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="5"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="5"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
+      <c r="AB118" s="5"/>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
@@ -4366,72 +4760,52 @@
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="I119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="J119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M119" s="1" t="s">
+      <c r="N119" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N119" s="1" t="s">
+      <c r="O119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O119" s="1" t="s">
+      <c r="P119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R119" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V119" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X119" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB119" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120" s="1">
         <v>1276</v>
@@ -4442,16 +4816,39 @@
       <c r="E120" s="1">
         <v>142</v>
       </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
+      <c r="F120">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G120">
+        <v>0.9</v>
+      </c>
+      <c r="H120">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I120">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="J120">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K120" t="s">
+        <v>13</v>
+      </c>
+      <c r="L120">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M120">
+        <v>0.92</v>
+      </c>
+      <c r="N120">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O120">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="P120">
+        <v>0.98199999999999998</v>
+      </c>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
@@ -4479,11 +4876,39 @@
       <c r="E121" s="1">
         <v>142</v>
       </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="F121">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G121">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H121">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I121">
+        <v>0.749</v>
+      </c>
+      <c r="J121">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K121" t="s">
+        <v>11</v>
+      </c>
+      <c r="L121">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M121">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="N121">
+        <v>0.92</v>
+      </c>
+      <c r="O121">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="P121">
+        <v>0.98199999999999998</v>
+      </c>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -4501,11 +4926,39 @@
       <c r="E122" s="1">
         <v>142</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="F122">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G122">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H122">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I122">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="J122">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K122" t="s">
+        <v>12</v>
+      </c>
+      <c r="L122">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M122">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="N122">
+        <v>0.92</v>
+      </c>
+      <c r="O122">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="P122">
+        <v>0.98199999999999998</v>
+      </c>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -4523,11 +4976,21 @@
       <c r="E123" s="1">
         <v>142</v>
       </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="F123">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G123">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H123">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I123">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="J123">
+        <v>0.97699999999999998</v>
+      </c>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -4545,11 +5008,21 @@
       <c r="E124" s="1">
         <v>142</v>
       </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="F124">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G124">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H124">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="I124">
+        <v>0.871</v>
+      </c>
+      <c r="J124">
+        <v>0.97099999999999997</v>
+      </c>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -4567,11 +5040,21 @@
       <c r="E125" s="1">
         <v>142</v>
       </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="F125">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G125">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H125">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I125">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="J125">
+        <v>0.97799999999999998</v>
+      </c>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -4589,11 +5072,21 @@
       <c r="E126" s="1">
         <v>141</v>
       </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="F126">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G126">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="H126">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="I126">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J126">
+        <v>0.97899999999999998</v>
+      </c>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -4611,11 +5104,21 @@
       <c r="E127" s="1">
         <v>141</v>
       </c>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="F127">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G127">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H127">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I127">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="J127">
+        <v>0.98199999999999998</v>
+      </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -4633,13 +5136,23 @@
       <c r="E128" s="1">
         <v>142</v>
       </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G128">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H128">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I128">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J128">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>9</v>
       </c>
@@ -4655,41 +5168,4094 @@
       <c r="E129" s="1">
         <v>142</v>
       </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="F129">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G129">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H129">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I129">
+        <v>0.67</v>
+      </c>
+      <c r="J129">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>97</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="1"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="5"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D133" s="1">
+        <v>25</v>
+      </c>
+      <c r="E133" s="1">
+        <v>142</v>
+      </c>
+      <c r="F133">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G133">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="H133">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I133">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="J133">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K133" t="s">
+        <v>13</v>
+      </c>
+      <c r="L133">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M133">
+        <v>0.91</v>
+      </c>
+      <c r="N133">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O133">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="P133">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1">
+        <v>223</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D134" s="1">
+        <v>25</v>
+      </c>
+      <c r="E134" s="1">
+        <v>142</v>
+      </c>
+      <c r="F134">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G134">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H134">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="I134">
+        <v>0.621</v>
+      </c>
+      <c r="J134">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K134" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M134">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="N134">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="O134">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="P134">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>2</v>
+      </c>
+      <c r="B135" s="1">
+        <v>223</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D135" s="1">
+        <v>25</v>
+      </c>
+      <c r="E135" s="1">
+        <v>142</v>
+      </c>
+      <c r="F135">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G135">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="H135">
+        <v>0.83</v>
+      </c>
+      <c r="I135">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="J135">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="K135" t="s">
+        <v>12</v>
+      </c>
+      <c r="L135">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M135">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="N135">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O135">
+        <v>0.754</v>
+      </c>
+      <c r="P135">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>3</v>
+      </c>
+      <c r="B136" s="1">
+        <v>223</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D136" s="1">
+        <v>25</v>
+      </c>
+      <c r="E136" s="1">
+        <v>142</v>
+      </c>
+      <c r="F136">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G136">
+        <v>0.91</v>
+      </c>
+      <c r="H136">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I136">
+        <v>0.74</v>
+      </c>
+      <c r="J136">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>4</v>
+      </c>
+      <c r="B137" s="1">
+        <v>223</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D137" s="1">
+        <v>25</v>
+      </c>
+      <c r="E137" s="1">
+        <v>142</v>
+      </c>
+      <c r="F137">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G137">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="H137">
+        <v>0.86</v>
+      </c>
+      <c r="I137">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="J137">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>5</v>
+      </c>
+      <c r="B138" s="1">
+        <v>223</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D138" s="1">
+        <v>25</v>
+      </c>
+      <c r="E138" s="1">
+        <v>142</v>
+      </c>
+      <c r="F138">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G138">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H138">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I138">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J138">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>6</v>
+      </c>
+      <c r="B139" s="1">
+        <v>223</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D139" s="1">
+        <v>25</v>
+      </c>
+      <c r="E139" s="1">
+        <v>141</v>
+      </c>
+      <c r="F139">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G139">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H139">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I139">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="J139">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>7</v>
+      </c>
+      <c r="B140" s="1">
+        <v>223</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D140" s="1">
+        <v>25</v>
+      </c>
+      <c r="E140" s="1">
+        <v>141</v>
+      </c>
+      <c r="F140">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G140">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H140">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I140">
+        <v>0.74</v>
+      </c>
+      <c r="J140">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>8</v>
+      </c>
+      <c r="B141" s="1">
+        <v>224</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D141" s="1">
+        <v>24</v>
+      </c>
+      <c r="E141" s="1">
+        <v>142</v>
+      </c>
+      <c r="F141">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G141">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H141">
+        <v>0.877</v>
+      </c>
+      <c r="I141">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J141">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1">
+        <v>224</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D142" s="1">
+        <v>24</v>
+      </c>
+      <c r="E142" s="1">
+        <v>142</v>
+      </c>
+      <c r="F142">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G142">
+        <v>0.9</v>
+      </c>
+      <c r="H142">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I142">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J142">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>103</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="1"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="5"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>0</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D146" s="1">
+        <v>25</v>
+      </c>
+      <c r="E146" s="1">
+        <v>142</v>
+      </c>
+      <c r="F146">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G146">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H146">
+        <v>0.877</v>
+      </c>
+      <c r="I146">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J146">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K146" t="s">
+        <v>13</v>
+      </c>
+      <c r="L146">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M146">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="N146">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="O146">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="P146">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>1</v>
+      </c>
+      <c r="B147" s="1">
+        <v>223</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D147" s="1">
+        <v>25</v>
+      </c>
+      <c r="E147" s="1">
+        <v>142</v>
+      </c>
+      <c r="F147">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G147">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H147">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I147">
+        <v>0.754</v>
+      </c>
+      <c r="J147">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K147" t="s">
+        <v>11</v>
+      </c>
+      <c r="L147">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M147">
+        <v>0.92</v>
+      </c>
+      <c r="N147">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O147">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="P147">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>2</v>
+      </c>
+      <c r="B148" s="1">
+        <v>223</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D148" s="1">
+        <v>25</v>
+      </c>
+      <c r="E148" s="1">
+        <v>142</v>
+      </c>
+      <c r="F148">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G148">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H148">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I148">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J148">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K148" t="s">
+        <v>12</v>
+      </c>
+      <c r="L148">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M148">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N148">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="O148">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="P148">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1">
+        <v>223</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D149" s="1">
+        <v>25</v>
+      </c>
+      <c r="E149" s="1">
+        <v>142</v>
+      </c>
+      <c r="F149">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G149">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="H149">
+        <v>0.95</v>
+      </c>
+      <c r="I149">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="J149">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>4</v>
+      </c>
+      <c r="B150" s="1">
+        <v>223</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D150" s="1">
+        <v>25</v>
+      </c>
+      <c r="E150" s="1">
+        <v>142</v>
+      </c>
+      <c r="F150">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G150">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H150">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I150">
+        <v>0.753</v>
+      </c>
+      <c r="J150">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>5</v>
+      </c>
+      <c r="B151" s="1">
+        <v>223</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D151" s="1">
+        <v>25</v>
+      </c>
+      <c r="E151" s="1">
+        <v>142</v>
+      </c>
+      <c r="F151">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G151">
+        <v>0.88</v>
+      </c>
+      <c r="H151">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I151">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="J151">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>6</v>
+      </c>
+      <c r="B152" s="1">
+        <v>223</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D152" s="1">
+        <v>25</v>
+      </c>
+      <c r="E152" s="1">
+        <v>141</v>
+      </c>
+      <c r="F152">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G152">
+        <v>0.9</v>
+      </c>
+      <c r="H152">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I152">
+        <v>0.749</v>
+      </c>
+      <c r="J152">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>7</v>
+      </c>
+      <c r="B153" s="1">
+        <v>223</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D153" s="1">
+        <v>25</v>
+      </c>
+      <c r="E153" s="1">
+        <v>141</v>
+      </c>
+      <c r="F153">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G153">
+        <v>0.92</v>
+      </c>
+      <c r="H153">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I153">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="J153">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>8</v>
+      </c>
+      <c r="B154" s="1">
+        <v>224</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D154" s="1">
+        <v>24</v>
+      </c>
+      <c r="E154" s="1">
+        <v>142</v>
+      </c>
+      <c r="F154">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G154">
+        <v>0.91</v>
+      </c>
+      <c r="H154">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I154">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J154">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>9</v>
+      </c>
+      <c r="B155" s="1">
+        <v>224</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D155" s="1">
+        <v>24</v>
+      </c>
+      <c r="E155" s="1">
+        <v>142</v>
+      </c>
+      <c r="F155">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G155">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H155">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I155">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="J155">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>109</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="1"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="5"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>0</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D159" s="1">
+        <v>25</v>
+      </c>
+      <c r="E159" s="1">
+        <v>142</v>
+      </c>
+      <c r="F159">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G159">
+        <v>0.9</v>
+      </c>
+      <c r="H159">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I159">
+        <v>0.74</v>
+      </c>
+      <c r="J159">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K159" t="s">
+        <v>13</v>
+      </c>
+      <c r="L159">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M159">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="N159">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O159">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="P159">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+      <c r="B160" s="1">
+        <v>223</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D160" s="1">
+        <v>25</v>
+      </c>
+      <c r="E160" s="1">
+        <v>142</v>
+      </c>
+      <c r="F160">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G160">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H160">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I160">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="J160">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K160" t="s">
+        <v>11</v>
+      </c>
+      <c r="L160">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M160">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N160">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O160">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="P160">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>2</v>
+      </c>
+      <c r="B161" s="1">
+        <v>223</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D161" s="1">
+        <v>25</v>
+      </c>
+      <c r="E161" s="1">
+        <v>142</v>
+      </c>
+      <c r="F161">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G161">
+        <v>0.91</v>
+      </c>
+      <c r="H161">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I161">
+        <v>0.749</v>
+      </c>
+      <c r="J161">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K161" t="s">
+        <v>12</v>
+      </c>
+      <c r="L161">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M161">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N161">
+        <v>0.92</v>
+      </c>
+      <c r="O161">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="P161">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>3</v>
+      </c>
+      <c r="B162" s="1">
+        <v>223</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D162" s="1">
+        <v>25</v>
+      </c>
+      <c r="E162" s="1">
+        <v>142</v>
+      </c>
+      <c r="F162">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G162">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="H162">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="I162">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="J162">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>4</v>
+      </c>
+      <c r="B163" s="1">
+        <v>223</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D163" s="1">
+        <v>25</v>
+      </c>
+      <c r="E163" s="1">
+        <v>142</v>
+      </c>
+      <c r="F163">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G163">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H163">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I163">
+        <v>0.76</v>
+      </c>
+      <c r="J163">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>5</v>
+      </c>
+      <c r="B164" s="1">
+        <v>223</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D164" s="1">
+        <v>25</v>
+      </c>
+      <c r="E164" s="1">
+        <v>142</v>
+      </c>
+      <c r="F164">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G164">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H164">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I164">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="J164">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>6</v>
+      </c>
+      <c r="B165" s="1">
+        <v>223</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D165" s="1">
+        <v>25</v>
+      </c>
+      <c r="E165" s="1">
+        <v>141</v>
+      </c>
+      <c r="F165">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G165">
+        <v>0.872</v>
+      </c>
+      <c r="H165">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I165">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J165">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>7</v>
+      </c>
+      <c r="B166" s="1">
+        <v>223</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D166" s="1">
+        <v>25</v>
+      </c>
+      <c r="E166" s="1">
+        <v>141</v>
+      </c>
+      <c r="F166">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G166">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H166">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I166">
+        <v>0.74</v>
+      </c>
+      <c r="J166">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>8</v>
+      </c>
+      <c r="B167" s="1">
+        <v>224</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D167" s="1">
+        <v>24</v>
+      </c>
+      <c r="E167" s="1">
+        <v>142</v>
+      </c>
+      <c r="F167">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G167">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H167">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I167">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="J167">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>9</v>
+      </c>
+      <c r="B168" s="1">
+        <v>224</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D168" s="1">
+        <v>24</v>
+      </c>
+      <c r="E168" s="1">
+        <v>142</v>
+      </c>
+      <c r="F168">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G168">
+        <v>0.872</v>
+      </c>
+      <c r="H168">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I168">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J168">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>127</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="1"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="5"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>0</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D172" s="1">
+        <v>25</v>
+      </c>
+      <c r="E172" s="1">
+        <v>142</v>
+      </c>
+      <c r="F172">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G172">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H172">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I172">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="J172">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K172" t="s">
+        <v>13</v>
+      </c>
+      <c r="L172">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M172">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="N172">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O172">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="P172">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
+      <c r="B173" s="1">
+        <v>223</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D173" s="1">
+        <v>25</v>
+      </c>
+      <c r="E173" s="1">
+        <v>142</v>
+      </c>
+      <c r="F173">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G173">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H173">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I173">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="J173">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="K173" t="s">
+        <v>11</v>
+      </c>
+      <c r="L173">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M173">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N173">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O173">
+        <v>0.74</v>
+      </c>
+      <c r="P173">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>2</v>
+      </c>
+      <c r="B174" s="1">
+        <v>223</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D174" s="1">
+        <v>25</v>
+      </c>
+      <c r="E174" s="1">
+        <v>142</v>
+      </c>
+      <c r="F174">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G174">
+        <v>0.92</v>
+      </c>
+      <c r="H174">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I174">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="J174">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K174" t="s">
+        <v>12</v>
+      </c>
+      <c r="L174">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M174">
+        <v>0.91</v>
+      </c>
+      <c r="N174">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="O174">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="P174">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>3</v>
+      </c>
+      <c r="B175" s="1">
+        <v>223</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D175" s="1">
+        <v>25</v>
+      </c>
+      <c r="E175" s="1">
+        <v>142</v>
+      </c>
+      <c r="F175">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G175">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H175">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I175">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="J175">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>4</v>
+      </c>
+      <c r="B176" s="1">
+        <v>223</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D176" s="1">
+        <v>25</v>
+      </c>
+      <c r="E176" s="1">
+        <v>142</v>
+      </c>
+      <c r="F176">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G176">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H176">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I176">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="J176">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>5</v>
+      </c>
+      <c r="B177" s="1">
+        <v>223</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D177" s="1">
+        <v>25</v>
+      </c>
+      <c r="E177" s="1">
+        <v>142</v>
+      </c>
+      <c r="F177">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G177">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H177">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I177">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="J177">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>6</v>
+      </c>
+      <c r="B178" s="1">
+        <v>223</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D178" s="1">
+        <v>25</v>
+      </c>
+      <c r="E178" s="1">
+        <v>141</v>
+      </c>
+      <c r="F178">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G178">
+        <v>0.875</v>
+      </c>
+      <c r="H178">
+        <v>0.89</v>
+      </c>
+      <c r="I178">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="J178">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>7</v>
+      </c>
+      <c r="B179" s="1">
+        <v>223</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D179" s="1">
+        <v>25</v>
+      </c>
+      <c r="E179" s="1">
+        <v>141</v>
+      </c>
+      <c r="F179">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G179">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H179">
+        <v>0.92</v>
+      </c>
+      <c r="I179">
+        <v>0.754</v>
+      </c>
+      <c r="J179">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>8</v>
+      </c>
+      <c r="B180" s="1">
+        <v>224</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D180" s="1">
+        <v>24</v>
+      </c>
+      <c r="E180" s="1">
+        <v>142</v>
+      </c>
+      <c r="F180">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G180">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="H180">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I180">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="J180">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>9</v>
+      </c>
+      <c r="B181" s="1">
+        <v>224</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D181" s="1">
+        <v>24</v>
+      </c>
+      <c r="E181" s="1">
+        <v>142</v>
+      </c>
+      <c r="F181">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G181">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H181">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I181">
+        <v>0.67</v>
+      </c>
+      <c r="J181">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>139</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="1"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="5"/>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>0</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D185" s="1">
+        <v>25</v>
+      </c>
+      <c r="E185" s="1">
+        <v>142</v>
+      </c>
+      <c r="F185">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G185">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H185">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="I185">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J185">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="K185" t="s">
+        <v>13</v>
+      </c>
+      <c r="L185">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="M185">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="N185">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="O185">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="P185">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1">
+        <v>223</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D186" s="1">
+        <v>25</v>
+      </c>
+      <c r="E186" s="1">
+        <v>142</v>
+      </c>
+      <c r="F186">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G186">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H186">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I186">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J186">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K186" t="s">
+        <v>11</v>
+      </c>
+      <c r="L186">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="M186">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="N186">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="O186">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="P186">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>2</v>
+      </c>
+      <c r="B187" s="1">
+        <v>223</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D187" s="1">
+        <v>25</v>
+      </c>
+      <c r="E187" s="1">
+        <v>142</v>
+      </c>
+      <c r="F187">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G187">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H187">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="I187">
+        <v>0.78</v>
+      </c>
+      <c r="J187">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K187" t="s">
+        <v>12</v>
+      </c>
+      <c r="L187">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="M187">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="N187">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O187">
+        <v>0.76</v>
+      </c>
+      <c r="P187">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>3</v>
+      </c>
+      <c r="B188" s="1">
+        <v>223</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D188" s="1">
+        <v>25</v>
+      </c>
+      <c r="E188" s="1">
+        <v>142</v>
+      </c>
+      <c r="F188">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G188">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="H188">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I188">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="J188">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>4</v>
+      </c>
+      <c r="B189" s="1">
+        <v>223</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D189" s="1">
+        <v>25</v>
+      </c>
+      <c r="E189" s="1">
+        <v>142</v>
+      </c>
+      <c r="F189">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G189">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H189">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I189">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="J189">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>5</v>
+      </c>
+      <c r="B190" s="1">
+        <v>223</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D190" s="1">
+        <v>25</v>
+      </c>
+      <c r="E190" s="1">
+        <v>142</v>
+      </c>
+      <c r="F190">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G190">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H190">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I190">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J190">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>6</v>
+      </c>
+      <c r="B191" s="1">
+        <v>223</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D191" s="1">
+        <v>25</v>
+      </c>
+      <c r="E191" s="1">
+        <v>141</v>
+      </c>
+      <c r="F191">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G191">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="H191">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I191">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J191">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>7</v>
+      </c>
+      <c r="B192" s="1">
+        <v>223</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D192" s="1">
+        <v>25</v>
+      </c>
+      <c r="E192" s="1">
+        <v>141</v>
+      </c>
+      <c r="F192">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G192">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H192">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I192">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="J192">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>8</v>
+      </c>
+      <c r="B193" s="1">
+        <v>224</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D193" s="1">
+        <v>24</v>
+      </c>
+      <c r="E193" s="1">
+        <v>142</v>
+      </c>
+      <c r="F193">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G193">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H193">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I193">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J193">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>9</v>
+      </c>
+      <c r="B194" s="1">
+        <v>224</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D194" s="1">
+        <v>24</v>
+      </c>
+      <c r="E194" s="1">
+        <v>142</v>
+      </c>
+      <c r="F194">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G194">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H194">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I194">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="J194">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>151</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="1"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="5"/>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" s="6"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>0</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D198" s="1">
+        <v>25</v>
+      </c>
+      <c r="E198" s="1">
+        <v>142</v>
+      </c>
+      <c r="F198">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G198">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H198">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I198">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="J198">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="K198" t="s">
+        <v>13</v>
+      </c>
+      <c r="L198">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M198">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N198">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O198">
+        <v>0.74</v>
+      </c>
+      <c r="P198">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
+      <c r="B199" s="1">
+        <v>223</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D199" s="1">
+        <v>25</v>
+      </c>
+      <c r="E199" s="1">
+        <v>142</v>
+      </c>
+      <c r="F199">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G199">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H199">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I199">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J199">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="K199" t="s">
+        <v>11</v>
+      </c>
+      <c r="L199">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M199">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N199">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="O199">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="P199">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>2</v>
+      </c>
+      <c r="B200" s="1">
+        <v>223</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D200" s="1">
+        <v>25</v>
+      </c>
+      <c r="E200" s="1">
+        <v>142</v>
+      </c>
+      <c r="F200">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G200">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H200">
+        <v>0.86</v>
+      </c>
+      <c r="I200">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="J200">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="K200" t="s">
+        <v>12</v>
+      </c>
+      <c r="L200">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M200">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N200">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="O200">
+        <v>0.753</v>
+      </c>
+      <c r="P200">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>3</v>
+      </c>
+      <c r="B201" s="1">
+        <v>223</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D201" s="1">
+        <v>25</v>
+      </c>
+      <c r="E201" s="1">
+        <v>142</v>
+      </c>
+      <c r="F201">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G201">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="H201">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="I201">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="J201">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>4</v>
+      </c>
+      <c r="B202" s="1">
+        <v>223</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D202" s="1">
+        <v>25</v>
+      </c>
+      <c r="E202" s="1">
+        <v>142</v>
+      </c>
+      <c r="F202">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G202">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H202">
+        <v>0.877</v>
+      </c>
+      <c r="I202">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J202">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1">
+        <v>223</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D203" s="1">
+        <v>25</v>
+      </c>
+      <c r="E203" s="1">
+        <v>142</v>
+      </c>
+      <c r="F203">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G203">
+        <v>0.92</v>
+      </c>
+      <c r="H203">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I203">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="J203">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>6</v>
+      </c>
+      <c r="B204" s="1">
+        <v>223</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D204" s="1">
+        <v>25</v>
+      </c>
+      <c r="E204" s="1">
+        <v>141</v>
+      </c>
+      <c r="F204">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G204">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="H204">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I204">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="J204">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>7</v>
+      </c>
+      <c r="B205" s="1">
+        <v>223</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D205" s="1">
+        <v>25</v>
+      </c>
+      <c r="E205" s="1">
+        <v>141</v>
+      </c>
+      <c r="F205">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G205">
+        <v>0.875</v>
+      </c>
+      <c r="H205">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I205">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J205">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>8</v>
+      </c>
+      <c r="B206" s="1">
+        <v>224</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D206" s="1">
+        <v>24</v>
+      </c>
+      <c r="E206" s="1">
+        <v>142</v>
+      </c>
+      <c r="F206">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G206">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H206">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I206">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J206">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>9</v>
+      </c>
+      <c r="B207" s="1">
+        <v>224</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D207" s="1">
+        <v>24</v>
+      </c>
+      <c r="E207" s="1">
+        <v>142</v>
+      </c>
+      <c r="F207">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G207">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H207">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I207">
+        <v>0.749</v>
+      </c>
+      <c r="J207">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>163</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="1"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="5"/>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="6"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>0</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D211" s="1">
+        <v>25</v>
+      </c>
+      <c r="E211" s="1">
+        <v>142</v>
+      </c>
+      <c r="F211">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G211">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H211">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I211">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="J211">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K211" t="s">
+        <v>13</v>
+      </c>
+      <c r="L211">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M211">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N211">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="O211">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="P211">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1">
+        <v>223</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D212" s="1">
+        <v>25</v>
+      </c>
+      <c r="E212" s="1">
+        <v>142</v>
+      </c>
+      <c r="F212">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G212">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H212">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I212">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="J212">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K212" t="s">
+        <v>11</v>
+      </c>
+      <c r="L212">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M212">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N212">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="O212">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="P212">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>2</v>
+      </c>
+      <c r="B213" s="1">
+        <v>223</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D213" s="1">
+        <v>25</v>
+      </c>
+      <c r="E213" s="1">
+        <v>142</v>
+      </c>
+      <c r="F213">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G213">
+        <v>0.9</v>
+      </c>
+      <c r="H213">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I213">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="J213">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K213" t="s">
+        <v>12</v>
+      </c>
+      <c r="L213">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M213">
+        <v>0.92</v>
+      </c>
+      <c r="N213">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="O213">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="P213">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>3</v>
+      </c>
+      <c r="B214" s="1">
+        <v>223</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D214" s="1">
+        <v>25</v>
+      </c>
+      <c r="E214" s="1">
+        <v>142</v>
+      </c>
+      <c r="F214">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G214">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H214">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I214">
+        <v>0.64</v>
+      </c>
+      <c r="J214">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>4</v>
+      </c>
+      <c r="B215" s="1">
+        <v>223</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D215" s="1">
+        <v>25</v>
+      </c>
+      <c r="E215" s="1">
+        <v>142</v>
+      </c>
+      <c r="F215">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G215">
+        <v>0.872</v>
+      </c>
+      <c r="H215">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I215">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J215">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>5</v>
+      </c>
+      <c r="B216" s="1">
+        <v>223</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D216" s="1">
+        <v>25</v>
+      </c>
+      <c r="E216" s="1">
+        <v>142</v>
+      </c>
+      <c r="F216">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G216">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H216">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I216">
+        <v>0.749</v>
+      </c>
+      <c r="J216">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>6</v>
+      </c>
+      <c r="B217" s="1">
+        <v>223</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D217" s="1">
+        <v>25</v>
+      </c>
+      <c r="E217" s="1">
+        <v>141</v>
+      </c>
+      <c r="F217">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G217">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H217">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I217">
+        <v>0.74</v>
+      </c>
+      <c r="J217">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>7</v>
+      </c>
+      <c r="B218" s="1">
+        <v>223</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D218" s="1">
+        <v>25</v>
+      </c>
+      <c r="E218" s="1">
+        <v>141</v>
+      </c>
+      <c r="F218">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G218">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H218">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I218">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J218">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>8</v>
+      </c>
+      <c r="B219" s="1">
+        <v>224</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D219" s="1">
+        <v>24</v>
+      </c>
+      <c r="E219" s="1">
+        <v>142</v>
+      </c>
+      <c r="F219">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G219">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H219">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I219">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="J219">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>9</v>
+      </c>
+      <c r="B220" s="1">
+        <v>224</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D220" s="1">
+        <v>24</v>
+      </c>
+      <c r="E220" s="1">
+        <v>142</v>
+      </c>
+      <c r="F220">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G220">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="H220">
+        <v>0.95</v>
+      </c>
+      <c r="I220">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="J220">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>181</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="1"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
+      <c r="O222" s="4"/>
+      <c r="P222" s="5"/>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" s="6"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P223" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>0</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D224" s="1">
+        <v>25</v>
+      </c>
+      <c r="E224" s="1">
+        <v>142</v>
+      </c>
+      <c r="F224">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G224">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H224">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I224">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J224">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="K224" t="s">
+        <v>13</v>
+      </c>
+      <c r="L224">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="M224">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="N224">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="O224">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="P224">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1">
+        <v>223</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D225" s="1">
+        <v>25</v>
+      </c>
+      <c r="E225" s="1">
+        <v>142</v>
+      </c>
+      <c r="F225">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G225">
+        <v>0.875</v>
+      </c>
+      <c r="H225">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I225">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="J225">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K225" t="s">
+        <v>11</v>
+      </c>
+      <c r="L225">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="M225">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="N225">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="O225">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="P225">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1">
+        <v>223</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D226" s="1">
+        <v>25</v>
+      </c>
+      <c r="E226" s="1">
+        <v>142</v>
+      </c>
+      <c r="F226">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G226">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="H226">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="I226">
+        <v>0.65</v>
+      </c>
+      <c r="J226">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K226" t="s">
+        <v>12</v>
+      </c>
+      <c r="L226">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="M226">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="N226">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="O226">
+        <v>0.78</v>
+      </c>
+      <c r="P226">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>3</v>
+      </c>
+      <c r="B227" s="1">
+        <v>223</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D227" s="1">
+        <v>25</v>
+      </c>
+      <c r="E227" s="1">
+        <v>142</v>
+      </c>
+      <c r="F227">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G227">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H227">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I227">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="J227">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>4</v>
+      </c>
+      <c r="B228" s="1">
+        <v>223</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D228" s="1">
+        <v>25</v>
+      </c>
+      <c r="E228" s="1">
+        <v>142</v>
+      </c>
+      <c r="F228">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G228">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H228">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I228">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="J228">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>5</v>
+      </c>
+      <c r="B229" s="1">
+        <v>223</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D229" s="1">
+        <v>25</v>
+      </c>
+      <c r="E229" s="1">
+        <v>142</v>
+      </c>
+      <c r="F229">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G229">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H229">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="I229">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="J229">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>6</v>
+      </c>
+      <c r="B230" s="1">
+        <v>223</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D230" s="1">
+        <v>25</v>
+      </c>
+      <c r="E230" s="1">
+        <v>141</v>
+      </c>
+      <c r="F230">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G230">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H230">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I230">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="J230">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>7</v>
+      </c>
+      <c r="B231" s="1">
+        <v>223</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D231" s="1">
+        <v>25</v>
+      </c>
+      <c r="E231" s="1">
+        <v>141</v>
+      </c>
+      <c r="F231">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G231">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="H231">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I231">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J231">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>8</v>
+      </c>
+      <c r="B232" s="1">
+        <v>224</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D232" s="1">
+        <v>24</v>
+      </c>
+      <c r="E232" s="1">
+        <v>142</v>
+      </c>
+      <c r="F232">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G232">
+        <v>0.91</v>
+      </c>
+      <c r="H232">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I232">
+        <v>0.749</v>
+      </c>
+      <c r="J232">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>9</v>
+      </c>
+      <c r="B233" s="1">
+        <v>224</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D233" s="1">
+        <v>24</v>
+      </c>
+      <c r="E233" s="1">
+        <v>142</v>
+      </c>
+      <c r="F233">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G233">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H233">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I233">
+        <v>0.753</v>
+      </c>
+      <c r="J233">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <v>193</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="1"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="4"/>
+      <c r="O235" s="4"/>
+      <c r="P235" s="5"/>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236" s="6"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P236" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>0</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D237" s="1">
+        <v>25</v>
+      </c>
+      <c r="E237" s="1">
+        <v>142</v>
+      </c>
+      <c r="F237">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G237">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H237">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I237">
+        <v>0.67</v>
+      </c>
+      <c r="J237">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K237" t="s">
+        <v>13</v>
+      </c>
+      <c r="L237">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M237">
+        <v>0.91</v>
+      </c>
+      <c r="N237">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="O237">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="P237">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>1</v>
+      </c>
+      <c r="B238" s="1">
+        <v>223</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D238" s="1">
+        <v>25</v>
+      </c>
+      <c r="E238" s="1">
+        <v>142</v>
+      </c>
+      <c r="F238">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G238">
+        <v>0.89</v>
+      </c>
+      <c r="H238">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I238">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="J238">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K238" t="s">
+        <v>11</v>
+      </c>
+      <c r="L238">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M238">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N238">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="O238">
+        <v>0.753</v>
+      </c>
+      <c r="P238">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>2</v>
+      </c>
+      <c r="B239" s="1">
+        <v>223</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D239" s="1">
+        <v>25</v>
+      </c>
+      <c r="E239" s="1">
+        <v>142</v>
+      </c>
+      <c r="F239">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G239">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H239">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="I239">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="J239">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K239" t="s">
+        <v>12</v>
+      </c>
+      <c r="L239">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M239">
+        <v>0.9</v>
+      </c>
+      <c r="N239">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="O239">
+        <v>0.74</v>
+      </c>
+      <c r="P239">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>3</v>
+      </c>
+      <c r="B240" s="1">
+        <v>223</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D240" s="1">
+        <v>25</v>
+      </c>
+      <c r="E240" s="1">
+        <v>142</v>
+      </c>
+      <c r="F240">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G240">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H240">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="I240">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="J240">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>4</v>
+      </c>
+      <c r="B241" s="1">
+        <v>223</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D241" s="1">
+        <v>25</v>
+      </c>
+      <c r="E241" s="1">
+        <v>142</v>
+      </c>
+      <c r="F241">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="G241">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H241">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I241">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="J241">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>5</v>
+      </c>
+      <c r="B242" s="1">
+        <v>223</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D242" s="1">
+        <v>25</v>
+      </c>
+      <c r="E242" s="1">
+        <v>142</v>
+      </c>
+      <c r="F242">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G242">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="H242">
+        <v>0.879</v>
+      </c>
+      <c r="I242">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="J242">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>6</v>
+      </c>
+      <c r="B243" s="1">
+        <v>223</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D243" s="1">
+        <v>25</v>
+      </c>
+      <c r="E243" s="1">
+        <v>141</v>
+      </c>
+      <c r="F243">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G243">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H243">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I243">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="J243">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>7</v>
+      </c>
+      <c r="B244" s="1">
+        <v>223</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1277</v>
+      </c>
+      <c r="D244" s="1">
+        <v>25</v>
+      </c>
+      <c r="E244" s="1">
+        <v>141</v>
+      </c>
+      <c r="F244">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G244">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H244">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I244">
+        <v>0.7</v>
+      </c>
+      <c r="J244">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>8</v>
+      </c>
+      <c r="B245" s="1">
+        <v>224</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D245" s="1">
+        <v>24</v>
+      </c>
+      <c r="E245" s="1">
+        <v>142</v>
+      </c>
+      <c r="F245">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G245">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H245">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="I245">
+        <v>0.67</v>
+      </c>
+      <c r="J245">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>9</v>
+      </c>
+      <c r="B246" s="1">
+        <v>224</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1276</v>
+      </c>
+      <c r="D246" s="1">
+        <v>24</v>
+      </c>
+      <c r="E246" s="1">
+        <v>142</v>
+      </c>
+      <c r="F246">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G246">
+        <v>0.91</v>
+      </c>
+      <c r="H246">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I246">
+        <v>0.749</v>
+      </c>
+      <c r="J246">
+        <v>0.97199999999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="L118:P118"/>
-    <mergeCell ref="R118:V118"/>
-    <mergeCell ref="X118:AB118"/>
-    <mergeCell ref="L92:P92"/>
-    <mergeCell ref="R92:V92"/>
-    <mergeCell ref="X92:AB92"/>
-    <mergeCell ref="L105:P105"/>
-    <mergeCell ref="R105:V105"/>
-    <mergeCell ref="X105:AB105"/>
-    <mergeCell ref="L66:P66"/>
-    <mergeCell ref="R66:V66"/>
-    <mergeCell ref="X66:AB66"/>
-    <mergeCell ref="L79:P79"/>
-    <mergeCell ref="R79:V79"/>
-    <mergeCell ref="X79:AB79"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="X40:AB40"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="R53:V53"/>
-    <mergeCell ref="X53:AB53"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="X27:AB27"/>
+  <mergeCells count="153">
+    <mergeCell ref="F235:I235"/>
+    <mergeCell ref="L235:P235"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="F209:I209"/>
+    <mergeCell ref="L209:P209"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="D222:D223"/>
+    <mergeCell ref="E222:E223"/>
+    <mergeCell ref="F222:I222"/>
+    <mergeCell ref="L222:P222"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="F183:I183"/>
+    <mergeCell ref="L183:P183"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:I196"/>
+    <mergeCell ref="L196:P196"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="L157:P157"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:I170"/>
+    <mergeCell ref="L170:P170"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="L131:P131"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="L144:P144"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="R1:V1"/>
@@ -4706,53 +9272,33 @@
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="X27:AB27"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="X40:AB40"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="R53:V53"/>
+    <mergeCell ref="X53:AB53"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="R66:V66"/>
+    <mergeCell ref="X66:AB66"/>
+    <mergeCell ref="L79:P79"/>
+    <mergeCell ref="R79:V79"/>
+    <mergeCell ref="X79:AB79"/>
+    <mergeCell ref="L118:P118"/>
+    <mergeCell ref="R118:V118"/>
+    <mergeCell ref="X118:AB118"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="R92:V92"/>
+    <mergeCell ref="X92:AB92"/>
+    <mergeCell ref="L105:P105"/>
+    <mergeCell ref="R105:V105"/>
+    <mergeCell ref="X105:AB105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/model.xlsx
+++ b/excel/model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiddenpants-H\PycharmProjects\antioxidant-protein-classify\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A653ED-0ECE-4B8A-BF46-2FC5A0902471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F3B707-7630-4654-BC25-77D49BFFA9D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DE2633A-700B-4BFF-9EE5-66DB1F5232EB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="14">
   <si>
     <t>train positive</t>
   </si>
@@ -166,6 +166,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -173,9 +176,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406722F-D0D7-4218-8B8E-A681B8557960}">
   <dimension ref="A1:AB246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="S238" sqref="S238"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,50 +505,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+      <c r="A1" s="3">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="5"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="6"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -579,11 +579,24 @@
       <c r="P2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -639,11 +652,24 @@
       <c r="P3">
         <v>0.97499999999999998</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="R3" s="1">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="W3">
+        <v>0.61660000000000004</v>
+      </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -975,50 +1001,50 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="1"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="6"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1049,11 +1075,24 @@
       <c r="P15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -1109,11 +1148,24 @@
       <c r="P16">
         <v>0.97899999999999998</v>
       </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="R16" s="1">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.81130000000000002</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="W16">
+        <v>0.63329999999999997</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -1445,50 +1497,50 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>19</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="1"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="5"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="5"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="6"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="6"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1519,11 +1571,24 @@
       <c r="P28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="R28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -1579,11 +1644,24 @@
       <c r="P29">
         <v>0.97499999999999998</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
+      <c r="R29" s="1">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="W29">
+        <v>0.60829999999999995</v>
+      </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
@@ -1915,50 +1993,50 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>31</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="1"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="5"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="5"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="5"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="6"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="6"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1989,11 +2067,24 @@
       <c r="P41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -2375,50 +2466,50 @@
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="3">
         <v>37</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
       <c r="J53" s="1"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="5"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="5"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="5"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="6"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="6"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="1" t="s">
         <v>5</v>
       </c>
@@ -2449,11 +2540,24 @@
       <c r="P54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
+      <c r="R54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
@@ -2835,50 +2939,50 @@
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="3">
         <v>43</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
       <c r="J66" s="1"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="5"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="5"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="5"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="6"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="6"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="6"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2909,11 +3013,24 @@
       <c r="P67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
+      <c r="R67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
@@ -3305,50 +3422,50 @@
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+      <c r="A79" s="3">
         <v>61</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="1"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="5"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="5"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="5"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="6"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="6"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="6"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="1" t="s">
         <v>5</v>
       </c>
@@ -3379,11 +3496,24 @@
       <c r="P80" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
+      <c r="R80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
@@ -3775,50 +3905,50 @@
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+      <c r="A92" s="3">
         <v>67</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
       <c r="J92" s="1"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="5"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="5"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AB92" s="5"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="6"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="6"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="6"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="1" t="s">
         <v>5</v>
       </c>
@@ -3849,11 +3979,24 @@
       <c r="P93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
+      <c r="R93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W93" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
@@ -4245,50 +4388,50 @@
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
+      <c r="A105" s="3">
         <v>73</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
       <c r="J105" s="1"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="5"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="5"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="4"/>
-      <c r="Z105" s="4"/>
-      <c r="AA105" s="4"/>
-      <c r="AB105" s="5"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="6"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="6"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="6"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
       <c r="F106" s="1" t="s">
         <v>5</v>
       </c>
@@ -4319,11 +4462,24 @@
       <c r="P106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
+      <c r="R106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W106" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X106" s="1"/>
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
@@ -4715,50 +4871,50 @@
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
+      <c r="A118" s="3">
         <v>79</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
       <c r="J118" s="1"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="5"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="5"/>
-      <c r="X118" s="3"/>
-      <c r="Y118" s="4"/>
-      <c r="Z118" s="4"/>
-      <c r="AA118" s="4"/>
-      <c r="AB118" s="5"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="6"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="6"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="6"/>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
       <c r="F119" s="1" t="s">
         <v>5</v>
       </c>
@@ -4789,11 +4945,24 @@
       <c r="P119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
+      <c r="R119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W119" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="X119" s="1"/>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
@@ -5152,7 +5321,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>9</v>
       </c>
@@ -5184,41 +5353,41 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="6">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>97</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="F131" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
       <c r="J131" s="1"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="5"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="6"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
       <c r="F132" s="1" t="s">
         <v>5</v>
       </c>
@@ -5249,8 +5418,26 @@
       <c r="P132" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W132" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -5300,7 +5487,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1</v>
       </c>
@@ -5350,7 +5537,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -5400,7 +5587,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>3</v>
       </c>
@@ -5432,7 +5619,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>4</v>
       </c>
@@ -5464,7 +5651,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>5</v>
       </c>
@@ -5496,7 +5683,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>6</v>
       </c>
@@ -5528,7 +5715,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>7</v>
       </c>
@@ -5560,7 +5747,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>8</v>
       </c>
@@ -5592,7 +5779,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>9</v>
       </c>
@@ -5624,41 +5811,41 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
         <v>103</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="F144" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
       <c r="J144" s="1"/>
-      <c r="L144" s="3"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="5"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="5"/>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="6"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
       <c r="F145" s="1" t="s">
         <v>5</v>
       </c>
@@ -5689,8 +5876,26 @@
       <c r="P145" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W145" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>0</v>
       </c>
@@ -5740,7 +5945,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1</v>
       </c>
@@ -5790,7 +5995,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -5840,7 +6045,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -5872,7 +6077,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>4</v>
       </c>
@@ -5904,7 +6109,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>5</v>
       </c>
@@ -5936,7 +6141,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>6</v>
       </c>
@@ -5968,7 +6173,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>7</v>
       </c>
@@ -6000,7 +6205,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>8</v>
       </c>
@@ -6032,7 +6237,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>9</v>
       </c>
@@ -6064,41 +6269,41 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="6">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <v>109</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="F157" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
-      <c r="I157" s="6"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
       <c r="J157" s="1"/>
-      <c r="L157" s="3"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="4"/>
-      <c r="O157" s="4"/>
-      <c r="P157" s="5"/>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="6"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
       <c r="F158" s="1" t="s">
         <v>5</v>
       </c>
@@ -6129,8 +6334,26 @@
       <c r="P158" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U158" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -6180,7 +6403,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1</v>
       </c>
@@ -6230,7 +6453,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -6280,7 +6503,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>3</v>
       </c>
@@ -6312,7 +6535,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>4</v>
       </c>
@@ -6344,7 +6567,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>5</v>
       </c>
@@ -6376,7 +6599,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>6</v>
       </c>
@@ -6408,7 +6631,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>7</v>
       </c>
@@ -6440,7 +6663,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>8</v>
       </c>
@@ -6472,7 +6695,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>9</v>
       </c>
@@ -6504,41 +6727,41 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="6">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <v>127</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E170" s="6" t="s">
+      <c r="E170" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F170" s="6" t="s">
+      <c r="F170" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
       <c r="J170" s="1"/>
-      <c r="L170" s="3"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4"/>
-      <c r="P170" s="5"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="6"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
       <c r="F171" s="1" t="s">
         <v>5</v>
       </c>
@@ -6569,8 +6792,26 @@
       <c r="P171" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>0</v>
       </c>
@@ -6620,7 +6861,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1</v>
       </c>
@@ -6670,7 +6911,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2</v>
       </c>
@@ -6720,7 +6961,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>3</v>
       </c>
@@ -6752,7 +6993,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>4</v>
       </c>
@@ -6784,7 +7025,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>5</v>
       </c>
@@ -6816,7 +7057,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>6</v>
       </c>
@@ -6848,7 +7089,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>7</v>
       </c>
@@ -6880,7 +7121,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>8</v>
       </c>
@@ -6912,7 +7153,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>9</v>
       </c>
@@ -6944,41 +7185,41 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A183" s="6">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
         <v>139</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="E183" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="F183" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
       <c r="J183" s="1"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="4"/>
-      <c r="N183" s="4"/>
-      <c r="O183" s="4"/>
-      <c r="P183" s="5"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6"/>
-      <c r="E184" s="6"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="5"/>
+      <c r="P183" s="6"/>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3"/>
       <c r="F184" s="1" t="s">
         <v>5</v>
       </c>
@@ -7009,8 +7250,26 @@
       <c r="P184" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T184" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V184" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W184" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>0</v>
       </c>
@@ -7060,7 +7319,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1</v>
       </c>
@@ -7110,7 +7369,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -7160,7 +7419,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>3</v>
       </c>
@@ -7192,7 +7451,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>4</v>
       </c>
@@ -7224,7 +7483,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>5</v>
       </c>
@@ -7256,7 +7515,7 @@
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>6</v>
       </c>
@@ -7288,7 +7547,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>7</v>
       </c>
@@ -7320,7 +7579,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>8</v>
       </c>
@@ -7352,7 +7611,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>9</v>
       </c>
@@ -7384,41 +7643,41 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A196" s="6">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
         <v>151</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="6" t="s">
+      <c r="D196" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="E196" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="F196" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
       <c r="J196" s="1"/>
-      <c r="L196" s="3"/>
-      <c r="M196" s="4"/>
-      <c r="N196" s="4"/>
-      <c r="O196" s="4"/>
-      <c r="P196" s="5"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="6"/>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
       <c r="F197" s="1" t="s">
         <v>5</v>
       </c>
@@ -7449,8 +7708,26 @@
       <c r="P197" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W197" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>0</v>
       </c>
@@ -7500,7 +7777,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1</v>
       </c>
@@ -7550,7 +7827,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -7600,7 +7877,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>3</v>
       </c>
@@ -7632,7 +7909,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>4</v>
       </c>
@@ -7664,7 +7941,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>5</v>
       </c>
@@ -7696,7 +7973,7 @@
         <v>0.98199999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>6</v>
       </c>
@@ -7728,7 +8005,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>7</v>
       </c>
@@ -7760,7 +8037,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>8</v>
       </c>
@@ -7792,7 +8069,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>9</v>
       </c>
@@ -7824,41 +8101,41 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A209" s="6">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <v>163</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C209" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D209" s="6" t="s">
+      <c r="D209" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E209" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F209" s="6" t="s">
+      <c r="F209" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-      <c r="I209" s="6"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
       <c r="J209" s="1"/>
-      <c r="L209" s="3"/>
-      <c r="M209" s="4"/>
-      <c r="N209" s="4"/>
-      <c r="O209" s="4"/>
-      <c r="P209" s="5"/>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A210" s="6"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="5"/>
+      <c r="P209" s="6"/>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
       <c r="F210" s="1" t="s">
         <v>5</v>
       </c>
@@ -7889,8 +8166,26 @@
       <c r="P210" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U210" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W210" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -7940,7 +8235,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1</v>
       </c>
@@ -7990,7 +8285,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -8040,7 +8335,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>3</v>
       </c>
@@ -8072,7 +8367,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>4</v>
       </c>
@@ -8104,7 +8399,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>5</v>
       </c>
@@ -8136,7 +8431,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>6</v>
       </c>
@@ -8168,7 +8463,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>7</v>
       </c>
@@ -8200,7 +8495,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>8</v>
       </c>
@@ -8232,7 +8527,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>9</v>
       </c>
@@ -8264,41 +8559,41 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A222" s="6">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
         <v>181</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D222" s="6" t="s">
+      <c r="D222" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="E222" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F222" s="6" t="s">
+      <c r="F222" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G222" s="6"/>
-      <c r="H222" s="6"/>
-      <c r="I222" s="6"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
       <c r="J222" s="1"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="4"/>
-      <c r="N222" s="4"/>
-      <c r="O222" s="4"/>
-      <c r="P222" s="5"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="5"/>
+      <c r="N222" s="5"/>
+      <c r="O222" s="5"/>
+      <c r="P222" s="6"/>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
       <c r="F223" s="1" t="s">
         <v>5</v>
       </c>
@@ -8329,8 +8624,26 @@
       <c r="P223" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W223" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>0</v>
       </c>
@@ -8380,7 +8693,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>1</v>
       </c>
@@ -8430,7 +8743,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -8480,7 +8793,7 @@
         <v>0.97799999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>3</v>
       </c>
@@ -8512,7 +8825,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>4</v>
       </c>
@@ -8544,7 +8857,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>5</v>
       </c>
@@ -8576,7 +8889,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>6</v>
       </c>
@@ -8608,7 +8921,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>7</v>
       </c>
@@ -8640,7 +8953,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>8</v>
       </c>
@@ -8672,7 +8985,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>9</v>
       </c>
@@ -8704,41 +9017,41 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A235" s="6">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
         <v>193</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C235" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D235" s="6" t="s">
+      <c r="D235" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="E235" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F235" s="6" t="s">
+      <c r="F235" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G235" s="6"/>
-      <c r="H235" s="6"/>
-      <c r="I235" s="6"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
       <c r="J235" s="1"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="4"/>
-      <c r="N235" s="4"/>
-      <c r="O235" s="4"/>
-      <c r="P235" s="5"/>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
+      <c r="L235" s="4"/>
+      <c r="M235" s="5"/>
+      <c r="N235" s="5"/>
+      <c r="O235" s="5"/>
+      <c r="P235" s="6"/>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
       <c r="F236" s="1" t="s">
         <v>5</v>
       </c>
@@ -8769,8 +9082,26 @@
       <c r="P236" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W236" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -8820,7 +9151,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>1</v>
       </c>
@@ -8869,8 +9200,11 @@
       <c r="P238">
         <v>0.98099999999999998</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>2</v>
       </c>
@@ -8920,7 +9254,7 @@
         <v>0.97899999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>3</v>
       </c>
@@ -9146,116 +9480,25 @@
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="F235:I235"/>
-    <mergeCell ref="L235:P235"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="D235:D236"/>
-    <mergeCell ref="E235:E236"/>
-    <mergeCell ref="F209:I209"/>
-    <mergeCell ref="L209:P209"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="D222:D223"/>
-    <mergeCell ref="E222:E223"/>
-    <mergeCell ref="F222:I222"/>
-    <mergeCell ref="L222:P222"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="F183:I183"/>
-    <mergeCell ref="L183:P183"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:I196"/>
-    <mergeCell ref="L196:P196"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F157:I157"/>
-    <mergeCell ref="L157:P157"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:I170"/>
-    <mergeCell ref="L170:P170"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F131:I131"/>
-    <mergeCell ref="L131:P131"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:I144"/>
-    <mergeCell ref="L144:P144"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F105:I105"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="L118:P118"/>
+    <mergeCell ref="R118:V118"/>
+    <mergeCell ref="X118:AB118"/>
+    <mergeCell ref="L92:P92"/>
+    <mergeCell ref="R92:V92"/>
+    <mergeCell ref="X92:AB92"/>
+    <mergeCell ref="L105:P105"/>
+    <mergeCell ref="R105:V105"/>
+    <mergeCell ref="X105:AB105"/>
+    <mergeCell ref="X40:AB40"/>
+    <mergeCell ref="L53:P53"/>
+    <mergeCell ref="R53:V53"/>
+    <mergeCell ref="X53:AB53"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="R66:V66"/>
+    <mergeCell ref="X66:AB66"/>
+    <mergeCell ref="L79:P79"/>
+    <mergeCell ref="R79:V79"/>
+    <mergeCell ref="X79:AB79"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="R1:V1"/>
@@ -9280,25 +9523,116 @@
     <mergeCell ref="X27:AB27"/>
     <mergeCell ref="L40:P40"/>
     <mergeCell ref="R40:V40"/>
-    <mergeCell ref="X40:AB40"/>
-    <mergeCell ref="L53:P53"/>
-    <mergeCell ref="R53:V53"/>
-    <mergeCell ref="X53:AB53"/>
-    <mergeCell ref="L66:P66"/>
-    <mergeCell ref="R66:V66"/>
-    <mergeCell ref="X66:AB66"/>
-    <mergeCell ref="L79:P79"/>
-    <mergeCell ref="R79:V79"/>
-    <mergeCell ref="X79:AB79"/>
-    <mergeCell ref="L118:P118"/>
-    <mergeCell ref="R118:V118"/>
-    <mergeCell ref="X118:AB118"/>
-    <mergeCell ref="L92:P92"/>
-    <mergeCell ref="R92:V92"/>
-    <mergeCell ref="X92:AB92"/>
-    <mergeCell ref="L105:P105"/>
-    <mergeCell ref="R105:V105"/>
-    <mergeCell ref="X105:AB105"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F105:I105"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F131:I131"/>
+    <mergeCell ref="L131:P131"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:I144"/>
+    <mergeCell ref="L144:P144"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F157:I157"/>
+    <mergeCell ref="L157:P157"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:I170"/>
+    <mergeCell ref="L170:P170"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F183:I183"/>
+    <mergeCell ref="L183:P183"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:I196"/>
+    <mergeCell ref="L196:P196"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F235:I235"/>
+    <mergeCell ref="L235:P235"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="D235:D236"/>
+    <mergeCell ref="E235:E236"/>
+    <mergeCell ref="F209:I209"/>
+    <mergeCell ref="L209:P209"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="D222:D223"/>
+    <mergeCell ref="E222:E223"/>
+    <mergeCell ref="F222:I222"/>
+    <mergeCell ref="L222:P222"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/model.xlsx
+++ b/excel/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hiddenpants-H\PycharmProjects\antioxidant-protein-classify\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F3B707-7630-4654-BC25-77D49BFFA9D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F3E33B-64E8-4408-A813-323D51DDC00B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DE2633A-700B-4BFF-9EE5-66DB1F5232EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DE2633A-700B-4BFF-9EE5-66DB1F5232EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406722F-D0D7-4218-8B8E-A681B8557960}">
   <dimension ref="A1:AB246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="R172" sqref="R171:W172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,10 +665,10 @@
         <v>0.82850000000000001</v>
       </c>
       <c r="V3" s="1">
-        <v>0.96760000000000002</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="W3">
-        <v>0.61660000000000004</v>
+        <v>0.60829999999999995</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1149,22 +1149,22 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>0.94589999999999996</v>
+        <v>0.95940000000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>0.94130000000000003</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="T16" s="1">
-        <v>0.94199999999999995</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="U16" s="1">
-        <v>0.81130000000000002</v>
+        <v>0.83169999999999999</v>
       </c>
       <c r="V16" s="1">
-        <v>0.96850000000000003</v>
+        <v>0.96870000000000001</v>
       </c>
       <c r="W16">
-        <v>0.63329999999999997</v>
+        <v>0.625</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -1648,16 +1648,16 @@
         <v>0.94589999999999996</v>
       </c>
       <c r="S29" s="1">
-        <v>0.93869999999999998</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="T29" s="1">
-        <v>0.93989999999999996</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="U29" s="1">
-        <v>0.80579999999999996</v>
+        <v>0.81130000000000002</v>
       </c>
       <c r="V29" s="1">
-        <v>0.96809999999999996</v>
+        <v>0.96789999999999998</v>
       </c>
       <c r="W29">
         <v>0.60829999999999995</v>
@@ -2140,6 +2140,24 @@
       <c r="P42">
         <v>0.97799999999999998</v>
       </c>
+      <c r="R42">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="S42">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="T42">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="U42">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="V42">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="W42">
+        <v>0.58330000000000004</v>
+      </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -2613,6 +2631,24 @@
       <c r="P55">
         <v>0.98199999999999998</v>
       </c>
+      <c r="R55">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S55">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="T55">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="U55">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="V55">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="W55">
+        <v>0.64159999999999995</v>
+      </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -3086,11 +3122,24 @@
       <c r="P68">
         <v>0.97399999999999998</v>
       </c>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
+      <c r="R68" s="1">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0.93559999999999999</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0.79110000000000003</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="W68">
+        <v>0.60829999999999995</v>
+      </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
@@ -3569,11 +3618,24 @@
       <c r="P81">
         <v>0.98</v>
       </c>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
+      <c r="R81" s="1">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="W81">
+        <v>0.61660000000000004</v>
+      </c>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
@@ -4052,11 +4114,24 @@
       <c r="P94">
         <v>0.97599999999999998</v>
       </c>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
-      <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1"/>
+      <c r="R94" s="1">
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="T94" s="1">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="U94" s="1">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="V94" s="1">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="W94">
+        <v>0.59160000000000001</v>
+      </c>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
@@ -4535,11 +4610,24 @@
       <c r="P107">
         <v>0.97799999999999998</v>
       </c>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
+      <c r="R107" s="1">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="T107" s="1">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="U107" s="1">
+        <v>0.7954</v>
+      </c>
+      <c r="V107" s="1">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="W107">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
@@ -5018,11 +5106,24 @@
       <c r="P120">
         <v>0.98199999999999998</v>
       </c>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
+      <c r="R120" s="1">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S120" s="1">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="T120" s="1">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="U120" s="1">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="V120" s="1">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="W120">
+        <v>0.60829999999999995</v>
+      </c>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
@@ -5486,6 +5587,24 @@
       <c r="P133">
         <v>0.97699999999999998</v>
       </c>
+      <c r="R133">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="S133">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="T133">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="U133">
+        <v>0.79339999999999999</v>
+      </c>
+      <c r="V133">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="W133">
+        <v>0.64990000000000003</v>
+      </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -5944,6 +6063,24 @@
       <c r="P146">
         <v>0.98199999999999998</v>
       </c>
+      <c r="R146">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S146">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="T146">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="U146">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="V146">
+        <v>0.9708</v>
+      </c>
+      <c r="W146">
+        <v>0.58330000000000004</v>
+      </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -6402,6 +6539,24 @@
       <c r="P159">
         <v>0.97499999999999998</v>
       </c>
+      <c r="R159">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S159">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="T159">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="U159">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="V159">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="W159">
+        <v>0.58330000000000004</v>
+      </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
@@ -6860,6 +7015,24 @@
       <c r="P172">
         <v>0.98199999999999998</v>
       </c>
+      <c r="R172">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S172">
+        <v>0.9617</v>
+      </c>
+      <c r="T172">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="U172">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="V172">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="W172">
+        <v>0.60829999999999995</v>
+      </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -7318,6 +7491,24 @@
       <c r="P185">
         <v>0.98</v>
       </c>
+      <c r="R185">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="S185">
+        <v>0.95909999999999995</v>
+      </c>
+      <c r="T185">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="U185">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="V185">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="W185">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -7776,6 +7967,24 @@
       <c r="P198">
         <v>0.97799999999999998</v>
       </c>
+      <c r="R198">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S198">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="T198">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="U198">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="V198">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="W198">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
@@ -8234,6 +8443,24 @@
       <c r="P211">
         <v>0.97399999999999998</v>
       </c>
+      <c r="R211">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S211">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="T211">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="U211">
+        <v>0.82269999999999999</v>
+      </c>
+      <c r="V211">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="W211">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
@@ -8692,6 +8919,24 @@
       <c r="P224">
         <v>0.98</v>
       </c>
+      <c r="R224">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S224">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="T224">
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="U224">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="V224">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="W224">
+        <v>0.57489999999999997</v>
+      </c>
     </row>
     <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
@@ -9150,6 +9395,24 @@
       <c r="P237">
         <v>0.97699999999999998</v>
       </c>
+      <c r="R237">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="S237">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="T237">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="U237">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="V237">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="W237">
+        <v>0.59160000000000001</v>
+      </c>
     </row>
     <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
@@ -9199,9 +9462,6 @@
       </c>
       <c r="P238">
         <v>0.98099999999999998</v>
-      </c>
-      <c r="S238">
-        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.25">
